--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V230"/>
+  <dimension ref="A1:V231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21617,6 +21617,98 @@
         </is>
       </c>
     </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45189.10416666666</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>2</v>
+      </c>
+      <c r="J231" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>16/09/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>20/09/2023 02:27</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>16/09/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P231" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>20/09/2023 02:27</t>
+        </is>
+      </c>
+      <c r="R231" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>16/09/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T231" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>20/09/2023 02:23</t>
+        </is>
+      </c>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-bragantino/QeDrJ2GE/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V231"/>
+  <dimension ref="A1:V234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>1.45</v>
+        <v>2.76</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 02:12</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.41</v>
+        <v>2.74</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>11/05/2023 02:29</t>
+          <t>11/05/2023 02:27</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.72</v>
+        <v>3.42</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 02:12</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.71</v>
+        <v>3.21</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>11/05/2023 02:12</t>
+          <t>11/05/2023 02:25</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>7.37</v>
+        <v>2.6</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 02:12</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>8.65</v>
+        <v>2.85</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>11/05/2023 02:12</t>
+          <t>11/05/2023 02:27</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-gremio/U5XPfbcG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-fluminense/vuNaldzp/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2.76</v>
+        <v>1.45</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>07/05/2023 02:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.74</v>
+        <v>1.41</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>11/05/2023 02:27</t>
+          <t>11/05/2023 02:29</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.42</v>
+        <v>4.72</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>07/05/2023 02:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.21</v>
+        <v>4.71</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>11/05/2023 02:25</t>
+          <t>11/05/2023 02:12</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.6</v>
+        <v>7.37</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>07/05/2023 02:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.85</v>
+        <v>8.65</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>11/05/2023 02:27</t>
+          <t>11/05/2023 02:12</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-fluminense/vuNaldzp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-gremio/U5XPfbcG/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,63 +5549,63 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.74</v>
+        <v>2.26</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:50</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.77</v>
+        <v>3.44</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.33</v>
+        <v>3.64</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>4.95</v>
+        <v>3.27</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.73</v>
+        <v>4.38</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,63 +5641,63 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.26</v>
+        <v>1.74</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:50</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.44</v>
+        <v>3.77</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.64</v>
+        <v>3.33</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.27</v>
+        <v>4.95</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.38</v>
+        <v>4.73</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
         </is>
       </c>
     </row>
@@ -6461,30 +6461,30 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.94</v>
+        <v>2.78</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.87</v>
+        <v>2.77</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6492,15 +6492,15 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.59</v>
+        <v>3.31</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.44</v>
+        <v>3.32</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -6508,24 +6508,24 @@
         </is>
       </c>
       <c r="R66" t="n">
-        <v>4.03</v>
+        <v>2.72</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.88</v>
+        <v>2.74</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 22:51</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
         </is>
       </c>
     </row>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>2.78</v>
+        <v>1.94</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.77</v>
+        <v>1.87</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,15 +6584,15 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.31</v>
+        <v>3.59</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,24 +6600,24 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.72</v>
+        <v>4.03</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.74</v>
+        <v>4.88</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>20/05/2023 22:51</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
         </is>
       </c>
     </row>
@@ -8025,46 +8025,46 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Botafogo RJ</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
       <c r="J83" t="n">
-        <v>3.12</v>
+        <v>2.23</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>29/05/2023 07:12</t>
+          <t>29/05/2023 02:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.53</v>
+        <v>1.99</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>03/06/2023 23:26</t>
+          <t>03/06/2023 23:29</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>29/05/2023 07:12</t>
+          <t>29/05/2023 02:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.11</v>
+        <v>3.5</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -8072,24 +8072,24 @@
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.41</v>
+        <v>3.38</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>29/05/2023 07:12</t>
+          <t>29/05/2023 02:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.37</v>
+        <v>4.16</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>03/06/2023 23:26</t>
+          <t>03/06/2023 23:29</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-atletico-mg/AFJX9kKH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-botafogo-rj/WU7t8TlU/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.23</v>
+        <v>2.32</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>29/05/2023 02:12</t>
+          <t>29/05/2023 00:12</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.99</v>
+        <v>2.93</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>03/06/2023 23:29</t>
+          <t>03/06/2023 23:20</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>29/05/2023 02:12</t>
+          <t>29/05/2023 00:12</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.5</v>
+        <v>3.14</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>03/06/2023 23:29</t>
+          <t>03/06/2023 23:20</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.38</v>
+        <v>3.24</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>29/05/2023 02:12</t>
+          <t>29/05/2023 00:12</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>4.16</v>
+        <v>2.72</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>03/06/2023 23:29</t>
+          <t>03/06/2023 23:20</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-botafogo-rj/WU7t8TlU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-corinthians/MgmjSWZo/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.32</v>
+        <v>3.12</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>29/05/2023 00:12</t>
+          <t>29/05/2023 07:12</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.93</v>
+        <v>3.53</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>03/06/2023 23:20</t>
+          <t>03/06/2023 23:26</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.34</v>
+        <v>3.3</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>29/05/2023 00:12</t>
+          <t>29/05/2023 07:12</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.14</v>
+        <v>3.11</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>03/06/2023 23:20</t>
+          <t>03/06/2023 23:29</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.24</v>
+        <v>2.41</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>29/05/2023 00:12</t>
+          <t>29/05/2023 07:12</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.72</v>
+        <v>2.37</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>03/06/2023 23:20</t>
+          <t>03/06/2023 23:26</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-corinthians/MgmjSWZo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-atletico-mg/AFJX9kKH/</t>
         </is>
       </c>
     </row>
@@ -20077,22 +20077,22 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>1.84</v>
+        <v>3.34</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -20100,39 +20100,39 @@
         </is>
       </c>
       <c r="L214" t="n">
-        <v>1.95</v>
+        <v>4.92</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
+          <t>03/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>27/08/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
           <t>03/09/2023 20:56</t>
         </is>
       </c>
-      <c r="N214" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O214" t="inlineStr">
+      <c r="R214" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S214" t="inlineStr">
         <is>
           <t>27/08/2023 22:42</t>
         </is>
       </c>
-      <c r="P214" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q214" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:55</t>
-        </is>
-      </c>
-      <c r="R214" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="S214" t="inlineStr">
-        <is>
-          <t>27/08/2023 22:42</t>
-        </is>
-      </c>
       <c r="T214" t="n">
-        <v>4.41</v>
+        <v>1.93</v>
       </c>
       <c r="U214" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
       </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-fortaleza/jogngFdh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-palmeiras/x2ebjDtB/</t>
         </is>
       </c>
     </row>
@@ -20169,22 +20169,22 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>3.34</v>
+        <v>1.84</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -20192,15 +20192,15 @@
         </is>
       </c>
       <c r="L215" t="n">
-        <v>4.92</v>
+        <v>1.95</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>03/09/2023 20:58</t>
+          <t>03/09/2023 20:56</t>
         </is>
       </c>
       <c r="N215" t="n">
-        <v>3.13</v>
+        <v>3.66</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
@@ -20208,32 +20208,32 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
+          <t>03/09/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R215" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>27/08/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T215" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
           <t>03/09/2023 20:56</t>
         </is>
       </c>
-      <c r="R215" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="S215" t="inlineStr">
-        <is>
-          <t>27/08/2023 22:42</t>
-        </is>
-      </c>
-      <c r="T215" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U215" t="inlineStr">
-        <is>
-          <t>03/09/2023 20:56</t>
-        </is>
-      </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-palmeiras/x2ebjDtB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-fortaleza/jogngFdh/</t>
         </is>
       </c>
     </row>
@@ -20261,71 +20261,71 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="L216" t="n">
-        <v>2.11</v>
+        <v>2.47</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:26</t>
+          <t>03/09/2023 23:19</t>
         </is>
       </c>
       <c r="N216" t="n">
-        <v>3.43</v>
+        <v>3.32</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>3.33</v>
+        <v>3.14</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:09</t>
         </is>
       </c>
       <c r="R216" t="n">
-        <v>4.04</v>
+        <v>3.47</v>
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="T216" t="n">
-        <v>3.95</v>
+        <v>3.29</v>
       </c>
       <c r="U216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:07</t>
         </is>
       </c>
       <c r="V216" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bragantino/YTl7liBN/</t>
         </is>
       </c>
     </row>
@@ -20445,71 +20445,71 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="L218" t="n">
-        <v>2.47</v>
+        <v>2.11</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:19</t>
+          <t>03/09/2023 23:26</t>
         </is>
       </c>
       <c r="N218" t="n">
-        <v>3.32</v>
+        <v>3.43</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>3.14</v>
+        <v>3.33</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:09</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="R218" t="n">
-        <v>3.47</v>
+        <v>4.04</v>
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="T218" t="n">
-        <v>3.29</v>
+        <v>3.95</v>
       </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:07</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="V218" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bragantino/YTl7liBN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
         </is>
       </c>
     </row>
@@ -20537,62 +20537,62 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I219" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J219" t="n">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>04/09/2023 08:42</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="L219" t="n">
-        <v>1.81</v>
+        <v>2.71</v>
       </c>
       <c r="M219" t="inlineStr">
         <is>
+          <t>14/09/2023 02:29</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>04/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P219" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
           <t>14/09/2023 02:21</t>
         </is>
       </c>
-      <c r="N219" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="O219" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="P219" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Q219" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:22</t>
-        </is>
-      </c>
       <c r="R219" t="n">
-        <v>4.75</v>
+        <v>3.38</v>
       </c>
       <c r="S219" t="inlineStr">
         <is>
-          <t>04/09/2023 08:42</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="T219" t="n">
-        <v>5.02</v>
+        <v>3.01</v>
       </c>
       <c r="U219" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
       </c>
       <c r="V219" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-athletico-pr/CEMT5htb/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-sao-paulo/bVhBq2Pe/</t>
         </is>
       </c>
     </row>
@@ -20629,71 +20629,71 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J220" t="n">
-        <v>2.35</v>
+        <v>1.72</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>04/09/2023 18:12</t>
+          <t>04/09/2023 08:42</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>2.71</v>
+        <v>1.81</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
+          <t>14/09/2023 02:21</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P220" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:22</t>
+        </is>
+      </c>
+      <c r="R220" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T220" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
           <t>14/09/2023 02:29</t>
         </is>
       </c>
-      <c r="N220" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="O220" t="inlineStr">
-        <is>
-          <t>04/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P220" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q220" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:21</t>
-        </is>
-      </c>
-      <c r="R220" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="S220" t="inlineStr">
-        <is>
-          <t>04/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T220" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="U220" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:29</t>
-        </is>
-      </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-sao-paulo/bVhBq2Pe/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-athletico-pr/CEMT5htb/</t>
         </is>
       </c>
     </row>
@@ -21706,6 +21706,282 @@
       <c r="V231" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-bragantino/QeDrJ2GE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>16/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>20/09/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>16/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P232" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>20/09/2023 23:48</t>
+        </is>
+      </c>
+      <c r="R232" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>16/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T232" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>20/09/2023 23:48</t>
+        </is>
+      </c>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-flamengo-rj/vkEpb1vk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45190.10416666666</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>21/09/2023 02:20</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P233" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>21/09/2023 02:20</t>
+        </is>
+      </c>
+      <c r="R233" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T233" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>21/09/2023 02:22</t>
+        </is>
+      </c>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-cruzeiro/niZ55qnF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45190.10416666666</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>2</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>14/09/2023 23:13</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>21/09/2023 02:22</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>14/09/2023 23:13</t>
+        </is>
+      </c>
+      <c r="P234" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>21/09/2023 02:22</t>
+        </is>
+      </c>
+      <c r="R234" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>14/09/2023 23:13</t>
+        </is>
+      </c>
+      <c r="T234" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>21/09/2023 02:28</t>
+        </is>
+      </c>
+      <c r="V234" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-fortaleza/fHxE3NGR/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V234"/>
+  <dimension ref="A1:V237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.64</v>
+        <v>2.69</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.64</v>
+        <v>2.46</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:27</t>
+          <t>15/04/2023 23:22</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.15</v>
+        <v>3.05</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.69</v>
+        <v>3.17</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:27</t>
+          <t>15/04/2023 23:25</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5.21</v>
+        <v>3</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>6.64</v>
+        <v>3.26</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:28</t>
+          <t>15/04/2023 23:25</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-goias/Sv02EkgD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-sao-paulo/vFRENgWQ/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.69</v>
+        <v>1.64</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.46</v>
+        <v>1.64</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:22</t>
+          <t>15/04/2023 23:27</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.05</v>
+        <v>4.15</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.17</v>
+        <v>3.69</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:25</t>
+          <t>15/04/2023 23:27</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>5.21</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.26</v>
+        <v>6.64</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:25</t>
+          <t>15/04/2023 23:28</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-sao-paulo/vFRENgWQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-goias/Sv02EkgD/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.32</v>
+        <v>1.66</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.65</v>
+        <v>1.94</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>22/04/2023 22:56</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>3.92</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.11</v>
+        <v>3.42</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>22/04/2023 20:05</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.42</v>
+        <v>5.68</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.04</v>
+        <v>4.51</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>22/04/2023 22:54</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bragantino/xO6mYqpn/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-america-mg/WWQII4pa/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.66</v>
+        <v>2.32</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.94</v>
+        <v>2.65</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>22/04/2023 23:18</t>
+          <t>22/04/2023 22:56</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.92</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,32 +1716,32 @@
         </is>
       </c>
       <c r="P14" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>22/04/2023 20:05</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
         <v>3.42</v>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>22/04/2023 23:18</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
-        <v>5.68</v>
-      </c>
       <c r="S14" t="inlineStr">
         <is>
           <t>17/04/2023 18:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>4.51</v>
+        <v>3.04</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>22/04/2023 23:18</t>
+          <t>22/04/2023 22:54</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-america-mg/WWQII4pa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bragantino/xO6mYqpn/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.66</v>
+        <v>1.48</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.79</v>
+        <v>1.64</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>30/04/2023 23:26</t>
+          <t>30/04/2023 23:25</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.21</v>
+        <v>4.48</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.12</v>
+        <v>3.98</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>30/04/2023 23:20</t>
+          <t>30/04/2023 23:25</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.9</v>
+        <v>7.36</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 00:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.87</v>
+        <v>5.91</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>30/04/2023 23:26</t>
+          <t>30/04/2023 23:25</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-gremio/4bQUpNTi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-goias/dhiHRaTT/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.48</v>
+        <v>2.66</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.64</v>
+        <v>2.79</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/04/2023 23:25</t>
+          <t>30/04/2023 23:26</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.48</v>
+        <v>3.21</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.98</v>
+        <v>3.12</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/04/2023 23:25</t>
+          <t>30/04/2023 23:20</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>7.36</v>
+        <v>2.9</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>24/04/2023 00:12</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>5.91</v>
+        <v>2.87</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/04/2023 23:25</t>
+          <t>30/04/2023 23:26</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-goias/dhiHRaTT/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-gremio/4bQUpNTi/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>3.45</v>
+        <v>1.77</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>02/05/2023 01:11</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3.01</v>
+        <v>1.74</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:57</t>
+          <t>07/05/2023 20:50</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.43</v>
+        <v>3.72</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>02/05/2023 01:11</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.22</v>
+        <v>3.76</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:56</t>
+          <t>07/05/2023 20:59</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.22</v>
+        <v>4.97</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>02/05/2023 01:11</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.61</v>
+        <v>5.35</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>07/05/2023 20:57</t>
+          <t>07/05/2023 20:50</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-flamengo-rj/bL1QZdLj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-coritiba/0Qu9btbi/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.77</v>
+        <v>3.45</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.74</v>
+        <v>3.01</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:50</t>
+          <t>07/05/2023 20:57</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.72</v>
+        <v>3.43</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.76</v>
+        <v>3.22</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:59</t>
+          <t>07/05/2023 20:56</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.97</v>
+        <v>2.22</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>02/05/2023 01:11</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>5.35</v>
+        <v>2.61</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>07/05/2023 20:50</t>
+          <t>07/05/2023 20:57</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-coritiba/0Qu9btbi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-flamengo-rj/bL1QZdLj/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.77</v>
+        <v>3.61</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>4.31</v>
+        <v>4.86</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.62</v>
+        <v>4.93</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>10/05/2023 23:48</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-athletico-pr/61gdmGkj/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.61</v>
+        <v>3.77</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.86</v>
+        <v>4.31</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.93</v>
+        <v>4.62</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:48</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-athletico-pr/61gdmGkj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,63 +5549,63 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.26</v>
+        <v>1.74</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:50</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.44</v>
+        <v>3.77</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.64</v>
+        <v>3.33</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.27</v>
+        <v>4.95</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>12/05/2023 01:12</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.38</v>
+        <v>4.73</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>14/05/2023 20:59</t>
+          <t>14/05/2023 20:58</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,63 +5641,63 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.74</v>
+        <v>2.26</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:50</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.77</v>
+        <v>3.44</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.33</v>
+        <v>3.64</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.95</v>
+        <v>3.27</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>12/05/2023 01:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.73</v>
+        <v>4.38</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 20:58</t>
+          <t>14/05/2023 20:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-santos/YDYf8HRF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fortaleza/SYhum7e7/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>2</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Athletico-PR</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.05</v>
+        <v>4.39</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.85</v>
+        <v>4.83</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:06</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.43</v>
+        <v>3.46</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.83</v>
+        <v>1.91</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.63</v>
+        <v>1.88</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>4.39</v>
+        <v>2.05</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4.83</v>
+        <v>1.85</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:06</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.45</v>
+        <v>3.64</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>1.91</v>
+        <v>3.83</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>1.88</v>
+        <v>4.63</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>1</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Botafogo RJ</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
       <c r="J83" t="n">
-        <v>2.23</v>
+        <v>3.12</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>29/05/2023 02:12</t>
+          <t>29/05/2023 07:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.99</v>
+        <v>3.53</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
+          <t>03/06/2023 23:26</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>29/05/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
           <t>03/06/2023 23:29</t>
         </is>
       </c>
-      <c r="N83" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>29/05/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>03/06/2023 23:29</t>
-        </is>
-      </c>
       <c r="R83" t="n">
-        <v>3.38</v>
+        <v>2.41</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>29/05/2023 02:12</t>
+          <t>29/05/2023 07:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.16</v>
+        <v>2.37</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>03/06/2023 23:29</t>
+          <t>03/06/2023 23:26</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-botafogo-rj/WU7t8TlU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-atletico-mg/AFJX9kKH/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.32</v>
+        <v>2.23</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>29/05/2023 00:12</t>
+          <t>29/05/2023 02:12</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.93</v>
+        <v>1.99</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>03/06/2023 23:20</t>
+          <t>03/06/2023 23:29</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>29/05/2023 00:12</t>
+          <t>29/05/2023 02:12</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.14</v>
+        <v>3.5</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>03/06/2023 23:20</t>
+          <t>03/06/2023 23:29</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.24</v>
+        <v>3.38</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>29/05/2023 00:12</t>
+          <t>29/05/2023 02:12</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.72</v>
+        <v>4.16</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>03/06/2023 23:20</t>
+          <t>03/06/2023 23:29</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-corinthians/MgmjSWZo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-botafogo-rj/WU7t8TlU/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
       <c r="J85" t="n">
-        <v>3.12</v>
+        <v>2.32</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>29/05/2023 07:12</t>
+          <t>29/05/2023 00:12</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.53</v>
+        <v>2.93</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>03/06/2023 23:26</t>
+          <t>03/06/2023 23:20</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>29/05/2023 07:12</t>
+          <t>29/05/2023 00:12</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>03/06/2023 23:29</t>
+          <t>03/06/2023 23:20</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.41</v>
+        <v>3.24</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>29/05/2023 07:12</t>
+          <t>29/05/2023 00:12</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.37</v>
+        <v>2.72</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>03/06/2023 23:26</t>
+          <t>03/06/2023 23:20</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-atletico-mg/AFJX9kKH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-corinthians/MgmjSWZo/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,63 +8401,63 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>29/05/2023 20:12</t>
+          <t>29/05/2023 10:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.09</v>
+        <v>1.77</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/06/2023 20:59</t>
+          <t>04/06/2023 20:35</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.36</v>
+        <v>3.97</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>29/05/2023 20:12</t>
+          <t>29/05/2023 10:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.32</v>
+        <v>3.73</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/06/2023 20:59</t>
+          <t>04/06/2023 20:58</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.75</v>
+        <v>4.51</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>29/05/2023 20:12</t>
+          <t>29/05/2023 10:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.01</v>
+        <v>4.99</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/06/2023 20:59</t>
+          <t>04/06/2023 20:36</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-sao-paulo/hv9x99ZN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-bragantino/4d1KED5n/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,63 +8493,63 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>29/05/2023 10:12</t>
+          <t>29/05/2023 20:12</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.77</v>
+        <v>2.09</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>04/06/2023 20:35</t>
+          <t>04/06/2023 20:59</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.97</v>
+        <v>3.36</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>29/05/2023 10:12</t>
+          <t>29/05/2023 20:12</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.73</v>
+        <v>3.32</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>04/06/2023 20:58</t>
+          <t>04/06/2023 20:59</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.51</v>
+        <v>3.75</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>29/05/2023 10:12</t>
+          <t>29/05/2023 20:12</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.99</v>
+        <v>4.01</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>04/06/2023 20:36</t>
+          <t>04/06/2023 20:59</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-bragantino/4d1KED5n/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-sao-paulo/hv9x99ZN/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>2</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Vasco</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
       <c r="J98" t="n">
-        <v>1.86</v>
+        <v>3.39</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>06/06/2023 07:41</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.83</v>
+        <v>3.19</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>11/06/2023 20:49</t>
+          <t>11/06/2023 20:58</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.65</v>
+        <v>3.33</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>06/06/2023 07:41</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>11/06/2023 20:49</t>
+          <t>11/06/2023 20:58</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>4.58</v>
+        <v>2.29</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>06/06/2023 07:41</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>4.98</v>
+        <v>2.47</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>11/06/2023 20:57</t>
+          <t>11/06/2023 20:58</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-vasco/xUeq50Yk/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-palmeiras/AFu3PUJ4/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>3.39</v>
+        <v>1.86</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>06/06/2023 07:41</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>3.19</v>
+        <v>1.83</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>11/06/2023 20:58</t>
+          <t>11/06/2023 20:49</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.33</v>
+        <v>3.65</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>06/06/2023 07:41</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>11/06/2023 20:58</t>
+          <t>11/06/2023 20:49</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.29</v>
+        <v>4.58</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>06/06/2023 07:41</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.47</v>
+        <v>4.98</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>11/06/2023 20:58</t>
+          <t>11/06/2023 20:57</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-palmeiras/AFu3PUJ4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-vasco/xUeq50Yk/</t>
         </is>
       </c>
     </row>
@@ -9773,42 +9773,42 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>17/06/2023 06:42</t>
+          <t>14/06/2023 22:42</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>21/06/2023 23:59</t>
+          <t>21/06/2023 23:43</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.6</v>
+        <v>3.42</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>17/06/2023 06:42</t>
+          <t>14/06/2023 22:42</t>
         </is>
       </c>
       <c r="P102" t="n">
@@ -9816,28 +9816,28 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>21/06/2023 23:59</t>
+          <t>21/06/2023 23:43</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>4.58</v>
+        <v>4.01</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>17/06/2023 06:42</t>
+          <t>14/06/2023 22:42</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>5.17</v>
+        <v>4.34</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>21/06/2023 23:59</t>
+          <t>21/06/2023 23:43</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-athletico-pr/nJunPLPL/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-fortaleza/dhVLIJ2k/</t>
         </is>
       </c>
     </row>
@@ -9865,42 +9865,42 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>14/06/2023 22:42</t>
+          <t>17/06/2023 06:42</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>21/06/2023 23:43</t>
+          <t>21/06/2023 23:59</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.42</v>
+        <v>3.6</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>14/06/2023 22:42</t>
+          <t>17/06/2023 06:42</t>
         </is>
       </c>
       <c r="P103" t="n">
@@ -9908,28 +9908,28 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>21/06/2023 23:43</t>
+          <t>21/06/2023 23:59</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4.01</v>
+        <v>4.58</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>14/06/2023 22:42</t>
+          <t>17/06/2023 06:42</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.34</v>
+        <v>5.17</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>21/06/2023 23:43</t>
+          <t>21/06/2023 23:59</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-fortaleza/dhVLIJ2k/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-athletico-pr/nJunPLPL/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,22 +10057,22 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2.06</v>
+        <v>4.31</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.97</v>
+        <v>3.68</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -10080,15 +10080,15 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.47</v>
+        <v>3.63</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -10096,15 +10096,15 @@
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.74</v>
+        <v>1.9</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.63</v>
+        <v>2.12</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-atletico-mg/Q3iwRse9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-palmeiras/6NCCusA2/</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -10149,22 +10149,22 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>4.31</v>
+        <v>2.06</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.68</v>
+        <v>2.97</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -10172,15 +10172,15 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.63</v>
+        <v>3.47</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -10188,15 +10188,15 @@
         </is>
       </c>
       <c r="R106" t="n">
-        <v>1.9</v>
+        <v>3.74</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.12</v>
+        <v>2.63</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-palmeiras/6NCCusA2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-atletico-mg/Q3iwRse9/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,63 +10333,63 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>1.75</v>
+        <v>3.01</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>19/06/2023 02:11</t>
+          <t>17/06/2023 22:12</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.99</v>
+        <v>2.73</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>23/06/2023 00:56</t>
+          <t>23/06/2023 00:59</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.73</v>
+        <v>3.16</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>19/06/2023 02:11</t>
+          <t>17/06/2023 22:12</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.31</v>
+        <v>2.98</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
+          <t>23/06/2023 00:58</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>17/06/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
           <t>23/06/2023 00:59</t>
         </is>
       </c>
-      <c r="R108" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>19/06/2023 02:11</t>
-        </is>
-      </c>
-      <c r="T108" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="U108" t="inlineStr">
-        <is>
-          <t>23/06/2023 00:59</t>
-        </is>
-      </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-goias/4fjsQ1AF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-botafogo-rj/IcGGv1P8/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,63 +10425,63 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>1</v>
       </c>
       <c r="J109" t="n">
+        <v>3</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>19/06/2023 02:11</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>23/06/2023 00:59</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>19/06/2023 02:11</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
         <v>3.01</v>
       </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>17/06/2023 22:12</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="M109" t="inlineStr">
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>23/06/2023 00:58</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>19/06/2023 02:11</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U109" t="inlineStr">
         <is>
           <t>23/06/2023 00:59</t>
         </is>
       </c>
-      <c r="N109" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>17/06/2023 22:12</t>
-        </is>
-      </c>
-      <c r="P109" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="Q109" t="inlineStr">
-        <is>
-          <t>23/06/2023 00:58</t>
-        </is>
-      </c>
-      <c r="R109" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>17/06/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T109" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="U109" t="inlineStr">
-        <is>
-          <t>23/06/2023 00:59</t>
-        </is>
-      </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-botafogo-rj/IcGGv1P8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-internacional/hKOUGcX1/</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10517,14 +10517,14 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,39 +10532,39 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.75</v>
+        <v>1.99</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
+          <t>23/06/2023 00:56</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>19/06/2023 02:11</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
           <t>23/06/2023 00:59</t>
         </is>
       </c>
-      <c r="N110" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="O110" t="inlineStr">
+      <c r="R110" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="S110" t="inlineStr">
         <is>
           <t>19/06/2023 02:11</t>
         </is>
       </c>
-      <c r="P110" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="Q110" t="inlineStr">
-        <is>
-          <t>23/06/2023 00:58</t>
-        </is>
-      </c>
-      <c r="R110" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>19/06/2023 02:11</t>
-        </is>
-      </c>
       <c r="T110" t="n">
-        <v>3.02</v>
+        <v>4.46</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-internacional/hKOUGcX1/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-goias/4fjsQ1AF/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I116" t="n">
         <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>25/06/2023 20:56</t>
+          <t>25/06/2023 20:59</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>4.14</v>
+        <v>4.24</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>4.33</v>
+        <v>4.73</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>25/06/2023 20:56</t>
+          <t>25/06/2023 20:59</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>5.53</v>
+        <v>5.72</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>6.7</v>
+        <v>7.59</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>25/06/2023 20:56</t>
+          <t>25/06/2023 20:59</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-coritiba/0pl8UG11/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-botafogo-rj/8n9Tya9R/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>25/06/2023 20:59</t>
+          <t>25/06/2023 20:56</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>4.24</v>
+        <v>4.14</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>4.73</v>
+        <v>4.33</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>25/06/2023 20:59</t>
+          <t>25/06/2023 20:56</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>5.72</v>
+        <v>5.53</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>7.59</v>
+        <v>6.7</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>25/06/2023 20:59</t>
+          <t>25/06/2023 20:56</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-botafogo-rj/8n9Tya9R/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-coritiba/0pl8UG11/</t>
         </is>
       </c>
     </row>
@@ -12533,71 +12533,71 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>2.16</v>
+        <v>2.67</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>02/07/2023 23:42</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1.79</v>
+        <v>2.98</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>08/07/2023 20:43</t>
+          <t>08/07/2023 20:59</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.45</v>
+        <v>3.29</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>02/07/2023 23:42</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.5</v>
+        <v>3.23</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>08/07/2023 20:58</t>
+          <t>08/07/2023 20:51</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>3.48</v>
+        <v>2.77</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>02/07/2023 23:42</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="T132" t="n">
-        <v>5.39</v>
+        <v>2.61</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>08/07/2023 20:58</t>
+          <t>08/07/2023 20:57</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bahia/v98u08in/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-cruzeiro/AVB4beGs/</t>
         </is>
       </c>
     </row>
@@ -12625,71 +12625,71 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>2.67</v>
+        <v>2.16</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>02/07/2023 23:42</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.98</v>
+        <v>1.79</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>08/07/2023 20:59</t>
+          <t>08/07/2023 20:43</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>02/07/2023 23:42</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>08/07/2023 20:51</t>
+          <t>08/07/2023 20:58</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>2.77</v>
+        <v>3.48</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>02/07/2023 23:42</t>
         </is>
       </c>
       <c r="T133" t="n">
-        <v>2.61</v>
+        <v>5.39</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>08/07/2023 20:57</t>
+          <t>08/07/2023 20:58</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-cruzeiro/AVB4beGs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bahia/v98u08in/</t>
         </is>
       </c>
     </row>
@@ -12717,71 +12717,71 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>1.55</v>
+        <v>2.35</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>04/07/2023 01:12</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.79</v>
+        <v>2.17</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>08/07/2023 23:26</t>
+          <t>08/07/2023 23:29</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>4.02</v>
+        <v>3.25</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>04/07/2023 01:12</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.32</v>
+        <v>3.41</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>08/07/2023 23:27</t>
+          <t>08/07/2023 23:29</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>6.72</v>
+        <v>3.35</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>04/07/2023 01:12</t>
         </is>
       </c>
       <c r="T134" t="n">
-        <v>5.91</v>
+        <v>3.64</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>08/07/2023 23:27</t>
+          <t>08/07/2023 23:29</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-corinthians/vB3LfDF6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-america-mg/QR1ThipJ/</t>
         </is>
       </c>
     </row>
@@ -12809,71 +12809,71 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>2.35</v>
+        <v>1.55</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>04/07/2023 01:12</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.17</v>
+        <v>1.79</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>08/07/2023 23:29</t>
+          <t>08/07/2023 23:26</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.25</v>
+        <v>4.02</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>04/07/2023 01:12</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.41</v>
+        <v>3.32</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>08/07/2023 23:29</t>
+          <t>08/07/2023 23:27</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.35</v>
+        <v>6.72</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>04/07/2023 01:12</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="T135" t="n">
-        <v>3.64</v>
+        <v>5.91</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>08/07/2023 23:29</t>
+          <t>08/07/2023 23:27</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-america-mg/QR1ThipJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-corinthians/vB3LfDF6/</t>
         </is>
       </c>
     </row>
@@ -13637,71 +13637,71 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 21:12</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>16/07/2023 20:58</t>
+          <t>16/07/2023 20:57</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.9</v>
+        <v>3.82</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 21:12</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.5</v>
+        <v>3.67</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>16/07/2023 20:58</t>
+          <t>16/07/2023 20:57</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>5.69</v>
+        <v>5.8</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 21:12</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>5.42</v>
+        <v>6.61</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>16/07/2023 20:58</t>
+          <t>16/07/2023 20:57</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-cuiaba/nZXIDRLo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-santos/Uc1hc6y5/</t>
         </is>
       </c>
     </row>
@@ -13729,71 +13729,71 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I145" t="n">
         <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>09/07/2023 21:12</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>16/07/2023 20:57</t>
+          <t>16/07/2023 20:58</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.82</v>
+        <v>3.9</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>09/07/2023 21:12</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.67</v>
+        <v>3.5</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>16/07/2023 20:57</t>
+          <t>16/07/2023 20:58</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>5.8</v>
+        <v>5.69</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>09/07/2023 21:12</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="T145" t="n">
-        <v>6.61</v>
+        <v>5.42</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>16/07/2023 20:57</t>
+          <t>16/07/2023 20:58</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-santos/Uc1hc6y5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-cuiaba/nZXIDRLo/</t>
         </is>
       </c>
     </row>
@@ -13913,71 +13913,71 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>3.15</v>
+        <v>1.67</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>09/07/2023 22:42</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.83</v>
+        <v>1.59</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>16/07/2023 23:28</t>
+          <t>16/07/2023 23:16</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.32</v>
+        <v>3.93</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>09/07/2023 22:42</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.15</v>
+        <v>4.14</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>16/07/2023 23:28</t>
+          <t>16/07/2023 23:29</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>2.38</v>
+        <v>5.5</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>09/07/2023 22:42</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="T147" t="n">
-        <v>2.8</v>
+        <v>6.25</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>16/07/2023 23:28</t>
+          <t>16/07/2023 23:29</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-palmeiras/dAh9gOzU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-bahia/bJvykrqo/</t>
         </is>
       </c>
     </row>
@@ -14005,71 +14005,71 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>1.67</v>
+        <v>3.15</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 22:42</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>1.59</v>
+        <v>2.83</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>16/07/2023 23:16</t>
+          <t>16/07/2023 23:28</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.93</v>
+        <v>3.32</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 22:42</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>4.14</v>
+        <v>3.15</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>16/07/2023 23:29</t>
+          <t>16/07/2023 23:28</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>5.5</v>
+        <v>2.38</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 22:42</t>
         </is>
       </c>
       <c r="T148" t="n">
-        <v>6.25</v>
+        <v>2.8</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>16/07/2023 23:29</t>
+          <t>16/07/2023 23:28</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-bahia/bJvykrqo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-palmeiras/dAh9gOzU/</t>
         </is>
       </c>
     </row>
@@ -15109,71 +15109,71 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>2.03</v>
+        <v>1.62</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:45</t>
+          <t>29/07/2023 20:58</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.38</v>
+        <v>3.83</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.49</v>
+        <v>3.98</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:45</t>
+          <t>29/07/2023 20:59</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>3.98</v>
+        <v>6.02</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>4.87</v>
+        <v>7.47</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:58</t>
+          <t>29/07/2023 20:59</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-cruzeiro/6JbhEbCd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-santos/tWR0Orz4/</t>
         </is>
       </c>
     </row>
@@ -15201,71 +15201,71 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J161" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>29/07/2023 20:51</t>
+          <t>29/07/2023 20:45</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3.23</v>
+        <v>3.38</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3.44</v>
+        <v>3.49</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>29/07/2023 20:59</t>
+          <t>29/07/2023 20:45</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>4.99</v>
+        <v>3.98</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="T161" t="n">
-        <v>5.41</v>
+        <v>4.87</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>29/07/2023 20:59</t>
+          <t>29/07/2023 20:58</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-cruzeiro/6JbhEbCd/</t>
         </is>
       </c>
     </row>
@@ -15293,7 +15293,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G162" t="n">
@@ -15301,38 +15301,38 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J162" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.55</v>
+        <v>1.81</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:58</t>
+          <t>29/07/2023 20:51</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3.83</v>
+        <v>3.23</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3.98</v>
+        <v>3.44</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -15340,15 +15340,15 @@
         </is>
       </c>
       <c r="R162" t="n">
-        <v>6.02</v>
+        <v>4.99</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="T162" t="n">
-        <v>7.47</v>
+        <v>5.41</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-santos/tWR0Orz4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
         </is>
       </c>
     </row>
@@ -15385,30 +15385,30 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J163" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>24/07/2023 04:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
@@ -15416,15 +15416,15 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>24/07/2023 04:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.35</v>
+        <v>3.13</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -15432,24 +15432,24 @@
         </is>
       </c>
       <c r="R163" t="n">
-        <v>4.2</v>
+        <v>4.66</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>24/07/2023 04:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="T163" t="n">
-        <v>3.59</v>
+        <v>4.32</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>29/07/2023 23:28</t>
+          <t>29/07/2023 23:26</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-bragantino/KMnzwrkc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-vasco/ELJDLtKM/</t>
         </is>
       </c>
     </row>
@@ -15477,30 +15477,30 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
         <v>3</v>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Vasco</t>
-        </is>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
       <c r="J164" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>24/07/2023 04:12</t>
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
@@ -15508,15 +15508,15 @@
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>24/07/2023 04:12</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.13</v>
+        <v>3.35</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -15524,24 +15524,24 @@
         </is>
       </c>
       <c r="R164" t="n">
-        <v>4.66</v>
+        <v>4.2</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>24/07/2023 04:12</t>
         </is>
       </c>
       <c r="T164" t="n">
-        <v>4.32</v>
+        <v>3.59</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>29/07/2023 23:26</t>
+          <t>29/07/2023 23:28</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-vasco/ELJDLtKM/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-bragantino/KMnzwrkc/</t>
         </is>
       </c>
     </row>
@@ -17409,46 +17409,46 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>07/08/2023 03:42</t>
+          <t>10/08/2023 22:32</t>
         </is>
       </c>
       <c r="L185" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>13/08/2023 23:28</t>
+          <t>13/08/2023 23:29</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>3.43</v>
+        <v>3.9</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>07/08/2023 03:42</t>
+          <t>10/08/2023 22:32</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3.73</v>
+        <v>3.98</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -17456,15 +17456,15 @@
         </is>
       </c>
       <c r="R185" t="n">
-        <v>5.16</v>
+        <v>6.23</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
-          <t>07/08/2023 03:42</t>
+          <t>10/08/2023 22:32</t>
         </is>
       </c>
       <c r="T185" t="n">
-        <v>4.87</v>
+        <v>7.47</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
@@ -17473,7 +17473,7 @@
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-sao-paulo/phnOX7UE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-santos/KM2bZK5J/</t>
         </is>
       </c>
     </row>
@@ -17501,71 +17501,71 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="n">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>10/08/2023 22:32</t>
+          <t>07/08/2023 03:42</t>
         </is>
       </c>
       <c r="L186" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
+          <t>13/08/2023 23:28</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>07/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
           <t>13/08/2023 23:29</t>
         </is>
       </c>
-      <c r="N186" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O186" t="inlineStr">
-        <is>
-          <t>10/08/2023 22:32</t>
-        </is>
-      </c>
-      <c r="P186" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="Q186" t="inlineStr">
+      <c r="R186" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>07/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T186" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="U186" t="inlineStr">
         <is>
           <t>13/08/2023 23:29</t>
         </is>
       </c>
-      <c r="R186" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="S186" t="inlineStr">
-        <is>
-          <t>10/08/2023 22:32</t>
-        </is>
-      </c>
-      <c r="T186" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="U186" t="inlineStr">
-        <is>
-          <t>13/08/2023 23:29</t>
-        </is>
-      </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-santos/KM2bZK5J/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-sao-paulo/phnOX7UE/</t>
         </is>
       </c>
     </row>
@@ -19709,71 +19709,71 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="n">
-        <v>2.65</v>
+        <v>2.29</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>27/08/2023 01:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="L210" t="n">
-        <v>2.9</v>
+        <v>2.46</v>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>02/09/2023 20:51</t>
+          <t>02/09/2023 20:59</t>
         </is>
       </c>
       <c r="N210" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>27/08/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P210" t="n">
         <v>3.06</v>
       </c>
-      <c r="O210" t="inlineStr">
-        <is>
-          <t>27/08/2023 01:12</t>
-        </is>
-      </c>
-      <c r="P210" t="n">
-        <v>2.89</v>
-      </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>02/09/2023 20:51</t>
+          <t>02/09/2023 20:55</t>
         </is>
       </c>
       <c r="R210" t="n">
-        <v>3.06</v>
+        <v>3.58</v>
       </c>
       <c r="S210" t="inlineStr">
         <is>
-          <t>27/08/2023 01:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="T210" t="n">
-        <v>2.97</v>
+        <v>3.41</v>
       </c>
       <c r="U210" t="inlineStr">
         <is>
-          <t>02/09/2023 20:51</t>
+          <t>02/09/2023 20:59</t>
         </is>
       </c>
       <c r="V210" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-internacional/fwj3kXeH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-atletico-mg/2quwqVYp/</t>
         </is>
       </c>
     </row>
@@ -19801,71 +19801,71 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>2.29</v>
+        <v>2.65</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 01:12</t>
         </is>
       </c>
       <c r="L211" t="n">
-        <v>2.46</v>
+        <v>2.9</v>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>02/09/2023 20:59</t>
+          <t>02/09/2023 20:51</t>
         </is>
       </c>
       <c r="N211" t="n">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 01:12</t>
         </is>
       </c>
       <c r="P211" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>02/09/2023 20:51</t>
+        </is>
+      </c>
+      <c r="R211" t="n">
         <v>3.06</v>
       </c>
-      <c r="Q211" t="inlineStr">
-        <is>
-          <t>02/09/2023 20:55</t>
-        </is>
-      </c>
-      <c r="R211" t="n">
-        <v>3.58</v>
-      </c>
       <c r="S211" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 01:12</t>
         </is>
       </c>
       <c r="T211" t="n">
-        <v>3.41</v>
+        <v>2.97</v>
       </c>
       <c r="U211" t="inlineStr">
         <is>
-          <t>02/09/2023 20:59</t>
+          <t>02/09/2023 20:51</t>
         </is>
       </c>
       <c r="V211" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-atletico-mg/2quwqVYp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-internacional/fwj3kXeH/</t>
         </is>
       </c>
     </row>
@@ -20537,71 +20537,71 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I219" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J219" t="n">
-        <v>2.35</v>
+        <v>1.72</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>04/09/2023 18:12</t>
+          <t>04/09/2023 08:42</t>
         </is>
       </c>
       <c r="L219" t="n">
-        <v>2.71</v>
+        <v>1.81</v>
       </c>
       <c r="M219" t="inlineStr">
         <is>
+          <t>14/09/2023 02:21</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P219" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:22</t>
+        </is>
+      </c>
+      <c r="R219" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T219" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
           <t>14/09/2023 02:29</t>
         </is>
       </c>
-      <c r="N219" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="O219" t="inlineStr">
-        <is>
-          <t>04/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P219" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q219" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:21</t>
-        </is>
-      </c>
-      <c r="R219" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="S219" t="inlineStr">
-        <is>
-          <t>04/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T219" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="U219" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:29</t>
-        </is>
-      </c>
       <c r="V219" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-sao-paulo/bVhBq2Pe/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-athletico-pr/CEMT5htb/</t>
         </is>
       </c>
     </row>
@@ -20629,62 +20629,62 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J220" t="n">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>04/09/2023 08:42</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>1.81</v>
+        <v>2.71</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
+          <t>14/09/2023 02:29</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>04/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P220" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
           <t>14/09/2023 02:21</t>
         </is>
       </c>
-      <c r="N220" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="O220" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="P220" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Q220" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:22</t>
-        </is>
-      </c>
       <c r="R220" t="n">
-        <v>4.75</v>
+        <v>3.38</v>
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>04/09/2023 08:42</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="T220" t="n">
-        <v>5.02</v>
+        <v>3.01</v>
       </c>
       <c r="U220" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
       </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-athletico-pr/CEMT5htb/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-sao-paulo/bVhBq2Pe/</t>
         </is>
       </c>
     </row>
@@ -21982,6 +21982,282 @@
       <c r="V234" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-fortaleza/fHxE3NGR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>5</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>21/09/2023 23:58</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>21/09/2023 23:33</t>
+        </is>
+      </c>
+      <c r="R235" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T235" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>21/09/2023 23:33</t>
+        </is>
+      </c>
+      <c r="V235" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-coritiba/QsY9431L/</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45191.02083333334</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>2</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>14/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>21/09/2023 23:58</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>14/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P236" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>22/09/2023 00:03</t>
+        </is>
+      </c>
+      <c r="R236" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>14/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T236" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>22/09/2023 00:03</t>
+        </is>
+      </c>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-internacional/AmVeeaO7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45191.10416666666</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>19/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:02</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>19/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P237" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:10</t>
+        </is>
+      </c>
+      <c r="R237" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>19/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T237" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:02</t>
+        </is>
+      </c>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-palmeiras/WdWidu91/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V237"/>
+  <dimension ref="A1:V238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6185,30 +6185,30 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>2</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Fortaleza</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
       <c r="J63" t="n">
-        <v>2.63</v>
+        <v>4.39</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3.05</v>
+        <v>4.83</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,31 +6216,31 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.48</v>
+        <v>3.46</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.39</v>
+        <v>3.45</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>20/05/2023 23:26</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.69</v>
+        <v>1.91</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.47</v>
+        <v>1.88</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-fortaleza/l8gDM7nQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>4.39</v>
+        <v>2.05</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4.83</v>
+        <v>1.85</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:06</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.45</v>
+        <v>3.64</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.91</v>
+        <v>3.83</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.88</v>
+        <v>4.63</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.05</v>
+        <v>2.78</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.85</v>
+        <v>2.77</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:06</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.43</v>
+        <v>3.31</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.64</v>
+        <v>3.32</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.83</v>
+        <v>2.72</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.63</v>
+        <v>2.74</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 22:51</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
         </is>
       </c>
     </row>
@@ -6461,30 +6461,30 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>2.78</v>
+        <v>1.94</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.77</v>
+        <v>1.87</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6492,15 +6492,15 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.31</v>
+        <v>3.59</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -6508,24 +6508,24 @@
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.72</v>
+        <v>4.03</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.74</v>
+        <v>4.88</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20/05/2023 22:51</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
         </is>
       </c>
     </row>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1.94</v>
+        <v>2.63</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>15/05/2023 09:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.87</v>
+        <v>3.05</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,40 +6584,40 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.59</v>
+        <v>3.48</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>15/05/2023 09:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.44</v>
+        <v>3.39</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
+          <t>20/05/2023 23:26</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>15/05/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
           <t>20/05/2023 23:29</t>
         </is>
       </c>
-      <c r="R67" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>15/05/2023 04:42</t>
-        </is>
-      </c>
-      <c r="T67" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>20/05/2023 23:29</t>
-        </is>
-      </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-fortaleza/l8gDM7nQ/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,14 +7205,14 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.59</v>
+        <v>1.96</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>27/05/2023 23:28</t>
+          <t>27/05/2023 23:29</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4.27</v>
+        <v>3.49</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.77</v>
+        <v>3.44</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>27/05/2023 23:28</t>
+          <t>27/05/2023 23:29</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>5.56</v>
+        <v>4.09</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.63</v>
+        <v>4.74</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>27/05/2023 23:28</t>
+          <t>27/05/2023 23:29</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-cruzeiro/U1ytIRfs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-coritiba/AZ1GFgjt/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.96</v>
+        <v>1.59</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>27/05/2023 23:29</t>
+          <t>27/05/2023 23:28</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.49</v>
+        <v>4.27</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.44</v>
+        <v>3.77</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>27/05/2023 23:29</t>
+          <t>27/05/2023 23:28</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.09</v>
+        <v>5.56</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.74</v>
+        <v>5.63</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>27/05/2023 23:29</t>
+          <t>27/05/2023 23:28</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-coritiba/AZ1GFgjt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-cruzeiro/U1ytIRfs/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
       <c r="J83" t="n">
-        <v>3.12</v>
+        <v>2.32</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>29/05/2023 07:12</t>
+          <t>29/05/2023 00:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.53</v>
+        <v>2.93</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>03/06/2023 23:26</t>
+          <t>03/06/2023 23:20</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>29/05/2023 07:12</t>
+          <t>29/05/2023 00:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>03/06/2023 23:29</t>
+          <t>03/06/2023 23:20</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.41</v>
+        <v>3.24</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>29/05/2023 07:12</t>
+          <t>29/05/2023 00:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.37</v>
+        <v>2.72</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>03/06/2023 23:26</t>
+          <t>03/06/2023 23:20</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-atletico-mg/AFJX9kKH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-corinthians/MgmjSWZo/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.32</v>
+        <v>3.12</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>29/05/2023 00:12</t>
+          <t>29/05/2023 07:12</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.93</v>
+        <v>3.53</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>03/06/2023 23:20</t>
+          <t>03/06/2023 23:26</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.34</v>
+        <v>3.3</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>29/05/2023 00:12</t>
+          <t>29/05/2023 07:12</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.14</v>
+        <v>3.11</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>03/06/2023 23:20</t>
+          <t>03/06/2023 23:29</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.24</v>
+        <v>2.41</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>29/05/2023 00:12</t>
+          <t>29/05/2023 07:12</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.72</v>
+        <v>2.37</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>03/06/2023 23:20</t>
+          <t>03/06/2023 23:26</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-corinthians/MgmjSWZo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-atletico-mg/AFJX9kKH/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,63 +8401,63 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>29/05/2023 10:12</t>
+          <t>29/05/2023 20:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.77</v>
+        <v>2.09</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/06/2023 20:35</t>
+          <t>04/06/2023 20:59</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.97</v>
+        <v>3.36</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>29/05/2023 10:12</t>
+          <t>29/05/2023 20:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.73</v>
+        <v>3.32</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/06/2023 20:58</t>
+          <t>04/06/2023 20:59</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.51</v>
+        <v>3.75</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>29/05/2023 10:12</t>
+          <t>29/05/2023 20:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.99</v>
+        <v>4.01</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/06/2023 20:36</t>
+          <t>04/06/2023 20:59</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-bragantino/4d1KED5n/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-sao-paulo/hv9x99ZN/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,63 +8493,63 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>29/05/2023 20:12</t>
+          <t>29/05/2023 10:12</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.09</v>
+        <v>1.77</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>04/06/2023 20:59</t>
+          <t>04/06/2023 20:35</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.36</v>
+        <v>3.97</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>29/05/2023 20:12</t>
+          <t>29/05/2023 10:12</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.32</v>
+        <v>3.73</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>04/06/2023 20:59</t>
+          <t>04/06/2023 20:58</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.75</v>
+        <v>4.51</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>29/05/2023 20:12</t>
+          <t>29/05/2023 10:12</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.01</v>
+        <v>4.99</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>04/06/2023 20:59</t>
+          <t>04/06/2023 20:36</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-sao-paulo/hv9x99ZN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-bragantino/4d1KED5n/</t>
         </is>
       </c>
     </row>
@@ -9589,71 +9589,71 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>1.55</v>
+        <v>3.71</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>06/06/2023 01:12</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.61</v>
+        <v>3.49</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
+          <t>11/06/2023 23:29</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>05/06/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
           <t>11/06/2023 23:27</t>
         </is>
       </c>
-      <c r="N100" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>06/06/2023 01:12</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Q100" t="inlineStr">
+      <c r="R100" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>05/06/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U100" t="inlineStr">
         <is>
           <t>11/06/2023 23:29</t>
         </is>
       </c>
-      <c r="R100" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>06/06/2023 01:12</t>
-        </is>
-      </c>
-      <c r="T100" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>11/06/2023 23:29</t>
-        </is>
-      </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-gremio/4IxeRjkh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-fluminense/6sZBN8lH/</t>
         </is>
       </c>
     </row>
@@ -9681,62 +9681,62 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>3.71</v>
+        <v>1.55</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>06/06/2023 01:12</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>3.49</v>
+        <v>1.61</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
+          <t>11/06/2023 23:27</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>06/06/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
           <t>11/06/2023 23:29</t>
         </is>
       </c>
-      <c r="N101" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>05/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P101" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>11/06/2023 23:27</t>
-        </is>
-      </c>
       <c r="R101" t="n">
-        <v>2.09</v>
+        <v>5.84</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>06/06/2023 01:12</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.28</v>
+        <v>5.82</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-fluminense/6sZBN8lH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-gremio/4IxeRjkh/</t>
         </is>
       </c>
     </row>
@@ -9773,42 +9773,42 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>14/06/2023 22:42</t>
+          <t>17/06/2023 06:42</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>21/06/2023 23:43</t>
+          <t>21/06/2023 23:59</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.42</v>
+        <v>3.6</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>14/06/2023 22:42</t>
+          <t>17/06/2023 06:42</t>
         </is>
       </c>
       <c r="P102" t="n">
@@ -9816,28 +9816,28 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>21/06/2023 23:43</t>
+          <t>21/06/2023 23:59</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>4.01</v>
+        <v>4.58</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>14/06/2023 22:42</t>
+          <t>17/06/2023 06:42</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>4.34</v>
+        <v>5.17</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>21/06/2023 23:43</t>
+          <t>21/06/2023 23:59</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-fortaleza/dhVLIJ2k/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-athletico-pr/nJunPLPL/</t>
         </is>
       </c>
     </row>
@@ -9865,42 +9865,42 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>17/06/2023 06:42</t>
+          <t>14/06/2023 22:42</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>21/06/2023 23:59</t>
+          <t>21/06/2023 23:43</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.6</v>
+        <v>3.42</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>17/06/2023 06:42</t>
+          <t>14/06/2023 22:42</t>
         </is>
       </c>
       <c r="P103" t="n">
@@ -9908,28 +9908,28 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>21/06/2023 23:59</t>
+          <t>21/06/2023 23:43</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4.58</v>
+        <v>4.01</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>17/06/2023 06:42</t>
+          <t>14/06/2023 22:42</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>5.17</v>
+        <v>4.34</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>21/06/2023 23:59</t>
+          <t>21/06/2023 23:43</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-athletico-pr/nJunPLPL/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-fortaleza/dhVLIJ2k/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,22 +10057,22 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>4.31</v>
+        <v>2.06</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>3.68</v>
+        <v>2.97</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -10080,15 +10080,15 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.63</v>
+        <v>3.47</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -10096,15 +10096,15 @@
         </is>
       </c>
       <c r="R105" t="n">
-        <v>1.9</v>
+        <v>3.74</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.12</v>
+        <v>2.63</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-palmeiras/6NCCusA2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-atletico-mg/Q3iwRse9/</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -10149,22 +10149,22 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>2.06</v>
+        <v>4.31</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.97</v>
+        <v>3.68</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -10172,15 +10172,15 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.47</v>
+        <v>3.63</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -10188,15 +10188,15 @@
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.74</v>
+        <v>1.9</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.63</v>
+        <v>2.12</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-atletico-mg/Q3iwRse9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-palmeiras/6NCCusA2/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,14 +10425,14 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,39 +10440,39 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.75</v>
+        <v>1.99</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
+          <t>23/06/2023 00:56</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>19/06/2023 02:11</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
           <t>23/06/2023 00:59</t>
         </is>
       </c>
-      <c r="N109" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="O109" t="inlineStr">
+      <c r="R109" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="S109" t="inlineStr">
         <is>
           <t>19/06/2023 02:11</t>
         </is>
       </c>
-      <c r="P109" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="Q109" t="inlineStr">
-        <is>
-          <t>23/06/2023 00:58</t>
-        </is>
-      </c>
-      <c r="R109" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>19/06/2023 02:11</t>
-        </is>
-      </c>
       <c r="T109" t="n">
-        <v>3.02</v>
+        <v>4.46</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-internacional/hKOUGcX1/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-goias/4fjsQ1AF/</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10517,14 +10517,14 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.99</v>
+        <v>2.75</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>23/06/2023 00:56</t>
+          <t>23/06/2023 00:59</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.73</v>
+        <v>3.12</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,32 +10548,32 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.31</v>
+        <v>3.01</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
+          <t>23/06/2023 00:58</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>19/06/2023 02:11</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
           <t>23/06/2023 00:59</t>
         </is>
       </c>
-      <c r="R110" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>19/06/2023 02:11</t>
-        </is>
-      </c>
-      <c r="T110" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="U110" t="inlineStr">
-        <is>
-          <t>23/06/2023 00:59</t>
-        </is>
-      </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-goias/4fjsQ1AF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-internacional/hKOUGcX1/</t>
         </is>
       </c>
     </row>
@@ -11245,71 +11245,71 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
         <v>2</v>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Flamengo RJ</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
-        <v>3</v>
-      </c>
       <c r="J118" t="n">
-        <v>3.96</v>
+        <v>2.43</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>23/06/2023 01:11</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>3.48</v>
+        <v>2.01</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>25/06/2023 23:29</t>
+          <t>25/06/2023 23:25</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>23/06/2023 01:11</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.21</v>
+        <v>3.46</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
+          <t>25/06/2023 23:27</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>23/06/2023 01:11</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
           <t>25/06/2023 23:28</t>
         </is>
       </c>
-      <c r="R118" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>23/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T118" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="U118" t="inlineStr">
-        <is>
-          <t>25/06/2023 23:28</t>
-        </is>
-      </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-flamengo-rj/AeeeXIHr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-internacional/IJiiiv9E/</t>
         </is>
       </c>
     </row>
@@ -11337,62 +11337,62 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.43</v>
+        <v>1.43</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>23/06/2023 01:11</t>
+          <t>18/06/2023 23:41</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.01</v>
+        <v>1.43</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>25/06/2023 23:25</t>
+          <t>25/06/2023 23:26</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.32</v>
+        <v>4.8</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>23/06/2023 01:11</t>
+          <t>18/06/2023 23:41</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.46</v>
+        <v>4.79</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>25/06/2023 23:27</t>
+          <t>25/06/2023 23:28</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.13</v>
+        <v>7.69</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>23/06/2023 01:11</t>
+          <t>18/06/2023 23:41</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>4.14</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-internacional/IJiiiv9E/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-goias/hKp0WxXl/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,38 +11437,38 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J120" t="n">
-        <v>1.43</v>
+        <v>3.96</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>18/06/2023 23:41</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.43</v>
+        <v>3.48</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>25/06/2023 23:26</t>
+          <t>25/06/2023 23:29</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>18/06/2023 23:41</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>4.79</v>
+        <v>3.21</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -11476,15 +11476,15 @@
         </is>
       </c>
       <c r="R120" t="n">
-        <v>7.69</v>
+        <v>2.03</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>18/06/2023 23:41</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>8.140000000000001</v>
+        <v>2.33</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-goias/hKp0WxXl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-flamengo-rj/AeeeXIHr/</t>
         </is>
       </c>
     </row>
@@ -12533,71 +12533,71 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>2.67</v>
+        <v>2.16</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>02/07/2023 23:42</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.98</v>
+        <v>1.79</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>08/07/2023 20:59</t>
+          <t>08/07/2023 20:43</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>02/07/2023 23:42</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>08/07/2023 20:51</t>
+          <t>08/07/2023 20:58</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>2.77</v>
+        <v>3.48</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>02/07/2023 23:42</t>
         </is>
       </c>
       <c r="T132" t="n">
-        <v>2.61</v>
+        <v>5.39</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>08/07/2023 20:57</t>
+          <t>08/07/2023 20:58</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-cruzeiro/AVB4beGs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bahia/v98u08in/</t>
         </is>
       </c>
     </row>
@@ -12625,71 +12625,71 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>2.16</v>
+        <v>2.67</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>02/07/2023 23:42</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.79</v>
+        <v>2.98</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>08/07/2023 20:43</t>
+          <t>08/07/2023 20:59</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.45</v>
+        <v>3.29</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>02/07/2023 23:42</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.5</v>
+        <v>3.23</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>08/07/2023 20:58</t>
+          <t>08/07/2023 20:51</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>3.48</v>
+        <v>2.77</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>02/07/2023 23:42</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="T133" t="n">
-        <v>5.39</v>
+        <v>2.61</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>08/07/2023 20:58</t>
+          <t>08/07/2023 20:57</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bahia/v98u08in/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-cruzeiro/AVB4beGs/</t>
         </is>
       </c>
     </row>
@@ -12717,71 +12717,71 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>2.35</v>
+        <v>1.55</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>04/07/2023 01:12</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.17</v>
+        <v>1.79</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>08/07/2023 23:29</t>
+          <t>08/07/2023 23:26</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.25</v>
+        <v>4.02</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>04/07/2023 01:12</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.41</v>
+        <v>3.32</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>08/07/2023 23:29</t>
+          <t>08/07/2023 23:27</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>3.35</v>
+        <v>6.72</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>04/07/2023 01:12</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="T134" t="n">
-        <v>3.64</v>
+        <v>5.91</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>08/07/2023 23:29</t>
+          <t>08/07/2023 23:27</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-america-mg/QR1ThipJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-corinthians/vB3LfDF6/</t>
         </is>
       </c>
     </row>
@@ -12809,71 +12809,71 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>1.55</v>
+        <v>2.35</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>04/07/2023 01:12</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.79</v>
+        <v>2.17</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>08/07/2023 23:26</t>
+          <t>08/07/2023 23:29</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>4.02</v>
+        <v>3.25</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>04/07/2023 01:12</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.32</v>
+        <v>3.41</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>08/07/2023 23:27</t>
+          <t>08/07/2023 23:29</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>6.72</v>
+        <v>3.35</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>04/07/2023 01:12</t>
         </is>
       </c>
       <c r="T135" t="n">
-        <v>5.91</v>
+        <v>3.64</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>08/07/2023 23:27</t>
+          <t>08/07/2023 23:29</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-corinthians/vB3LfDF6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-america-mg/QR1ThipJ/</t>
         </is>
       </c>
     </row>
@@ -14649,30 +14649,30 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>2.87</v>
+        <v>1.83</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.99</v>
+        <v>1.75</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
@@ -14680,40 +14680,40 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>2.97</v>
+        <v>3.72</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:48</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>2.8</v>
+        <v>4.59</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="T155" t="n">
-        <v>2.81</v>
+        <v>5.31</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:58</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
         </is>
       </c>
     </row>
@@ -14741,71 +14741,71 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J156" t="n">
-        <v>1.63</v>
+        <v>2.87</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>1.54</v>
+        <v>2.99</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:53</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.82</v>
+        <v>3</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>4.05</v>
+        <v>2.97</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:48</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>5.9</v>
+        <v>2.8</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>7.32</v>
+        <v>2.81</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:58</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
         </is>
       </c>
     </row>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -14841,63 +14841,63 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:53</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.62</v>
+        <v>3.82</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.72</v>
+        <v>4.05</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>4.59</v>
+        <v>5.9</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>5.31</v>
+        <v>7.32</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
         </is>
       </c>
     </row>
@@ -15109,7 +15109,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G160" t="n">
@@ -15117,38 +15117,38 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J160" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1.55</v>
+        <v>1.81</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:58</t>
+          <t>29/07/2023 20:51</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.83</v>
+        <v>3.23</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.98</v>
+        <v>3.44</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -15156,15 +15156,15 @@
         </is>
       </c>
       <c r="R160" t="n">
-        <v>6.02</v>
+        <v>4.99</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>7.47</v>
+        <v>5.41</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-santos/tWR0Orz4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
         </is>
       </c>
     </row>
@@ -15201,71 +15201,71 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>2.03</v>
+        <v>1.62</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>29/07/2023 20:45</t>
+          <t>29/07/2023 20:58</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3.38</v>
+        <v>3.83</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3.49</v>
+        <v>3.98</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>29/07/2023 20:45</t>
+          <t>29/07/2023 20:59</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>3.98</v>
+        <v>6.02</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T161" t="n">
-        <v>4.87</v>
+        <v>7.47</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>29/07/2023 20:58</t>
+          <t>29/07/2023 20:59</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-cruzeiro/6JbhEbCd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-santos/tWR0Orz4/</t>
         </is>
       </c>
     </row>
@@ -15293,71 +15293,71 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J162" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:51</t>
+          <t>29/07/2023 20:45</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3.23</v>
+        <v>3.38</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3.44</v>
+        <v>3.49</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:59</t>
+          <t>29/07/2023 20:45</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>4.99</v>
+        <v>3.98</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="T162" t="n">
-        <v>5.41</v>
+        <v>4.87</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:59</t>
+          <t>29/07/2023 20:58</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-cruzeiro/6JbhEbCd/</t>
         </is>
       </c>
     </row>
@@ -15385,30 +15385,30 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
         <v>3</v>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>Vasco</t>
-        </is>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
       <c r="J163" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>24/07/2023 04:12</t>
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
@@ -15416,15 +15416,15 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>24/07/2023 04:12</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.13</v>
+        <v>3.35</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -15432,24 +15432,24 @@
         </is>
       </c>
       <c r="R163" t="n">
-        <v>4.66</v>
+        <v>4.2</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>24/07/2023 04:12</t>
         </is>
       </c>
       <c r="T163" t="n">
-        <v>4.32</v>
+        <v>3.59</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>29/07/2023 23:26</t>
+          <t>29/07/2023 23:28</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-vasco/ELJDLtKM/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-bragantino/KMnzwrkc/</t>
         </is>
       </c>
     </row>
@@ -15477,30 +15477,30 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>24/07/2023 04:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
@@ -15508,15 +15508,15 @@
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>24/07/2023 04:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.35</v>
+        <v>3.13</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -15524,24 +15524,24 @@
         </is>
       </c>
       <c r="R164" t="n">
-        <v>4.2</v>
+        <v>4.66</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>24/07/2023 04:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="T164" t="n">
-        <v>3.59</v>
+        <v>4.32</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>29/07/2023 23:28</t>
+          <t>29/07/2023 23:26</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-bragantino/KMnzwrkc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-vasco/ELJDLtKM/</t>
         </is>
       </c>
     </row>
@@ -17133,62 +17133,62 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I182" t="n">
         <v>1</v>
       </c>
       <c r="J182" t="n">
-        <v>2.26</v>
+        <v>1.8</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="L182" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>13/08/2023 20:51</t>
+          <t>13/08/2023 20:58</t>
         </is>
       </c>
       <c r="N182" t="n">
-        <v>3.52</v>
+        <v>3.73</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>3.35</v>
+        <v>3.46</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>13/08/2023 20:55</t>
+          <t>13/08/2023 20:58</t>
         </is>
       </c>
       <c r="R182" t="n">
-        <v>3.19</v>
+        <v>4.59</v>
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="T182" t="n">
-        <v>3.36</v>
+        <v>4.17</v>
       </c>
       <c r="U182" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fluminense/hGACBHDC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-goias/bD12YvLP/</t>
         </is>
       </c>
     </row>
@@ -17317,71 +17317,71 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I184" t="n">
         <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>1.8</v>
+        <v>2.26</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L184" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
+          <t>13/08/2023 20:51</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>06/08/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P184" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>13/08/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>06/08/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T184" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
           <t>13/08/2023 20:58</t>
         </is>
       </c>
-      <c r="N184" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>06/08/2023 23:42</t>
-        </is>
-      </c>
-      <c r="P184" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q184" t="inlineStr">
-        <is>
-          <t>13/08/2023 20:58</t>
-        </is>
-      </c>
-      <c r="R184" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="S184" t="inlineStr">
-        <is>
-          <t>06/08/2023 23:42</t>
-        </is>
-      </c>
-      <c r="T184" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="U184" t="inlineStr">
-        <is>
-          <t>13/08/2023 20:58</t>
-        </is>
-      </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-goias/bD12YvLP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fluminense/hGACBHDC/</t>
         </is>
       </c>
     </row>
@@ -19709,71 +19709,71 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>2.29</v>
+        <v>2.65</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 01:12</t>
         </is>
       </c>
       <c r="L210" t="n">
-        <v>2.46</v>
+        <v>2.9</v>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>02/09/2023 20:59</t>
+          <t>02/09/2023 20:51</t>
         </is>
       </c>
       <c r="N210" t="n">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 01:12</t>
         </is>
       </c>
       <c r="P210" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>02/09/2023 20:51</t>
+        </is>
+      </c>
+      <c r="R210" t="n">
         <v>3.06</v>
       </c>
-      <c r="Q210" t="inlineStr">
-        <is>
-          <t>02/09/2023 20:55</t>
-        </is>
-      </c>
-      <c r="R210" t="n">
-        <v>3.58</v>
-      </c>
       <c r="S210" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 01:12</t>
         </is>
       </c>
       <c r="T210" t="n">
-        <v>3.41</v>
+        <v>2.97</v>
       </c>
       <c r="U210" t="inlineStr">
         <is>
-          <t>02/09/2023 20:59</t>
+          <t>02/09/2023 20:51</t>
         </is>
       </c>
       <c r="V210" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-atletico-mg/2quwqVYp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-internacional/fwj3kXeH/</t>
         </is>
       </c>
     </row>
@@ -19801,71 +19801,71 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="n">
-        <v>2.65</v>
+        <v>2.29</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>27/08/2023 01:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="L211" t="n">
-        <v>2.9</v>
+        <v>2.46</v>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>02/09/2023 20:51</t>
+          <t>02/09/2023 20:59</t>
         </is>
       </c>
       <c r="N211" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>27/08/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P211" t="n">
         <v>3.06</v>
       </c>
-      <c r="O211" t="inlineStr">
-        <is>
-          <t>27/08/2023 01:12</t>
-        </is>
-      </c>
-      <c r="P211" t="n">
-        <v>2.89</v>
-      </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>02/09/2023 20:51</t>
+          <t>02/09/2023 20:55</t>
         </is>
       </c>
       <c r="R211" t="n">
-        <v>3.06</v>
+        <v>3.58</v>
       </c>
       <c r="S211" t="inlineStr">
         <is>
-          <t>27/08/2023 01:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="T211" t="n">
-        <v>2.97</v>
+        <v>3.41</v>
       </c>
       <c r="U211" t="inlineStr">
         <is>
-          <t>02/09/2023 20:51</t>
+          <t>02/09/2023 20:59</t>
         </is>
       </c>
       <c r="V211" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-internacional/fwj3kXeH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-atletico-mg/2quwqVYp/</t>
         </is>
       </c>
     </row>
@@ -20261,71 +20261,71 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="L216" t="n">
-        <v>2.47</v>
+        <v>2.11</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:19</t>
+          <t>03/09/2023 23:26</t>
         </is>
       </c>
       <c r="N216" t="n">
-        <v>3.32</v>
+        <v>3.43</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>3.14</v>
+        <v>3.33</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:09</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="R216" t="n">
-        <v>3.47</v>
+        <v>4.04</v>
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>27/08/2023 22:42</t>
         </is>
       </c>
       <c r="T216" t="n">
-        <v>3.29</v>
+        <v>3.95</v>
       </c>
       <c r="U216" t="inlineStr">
         <is>
-          <t>03/09/2023 23:07</t>
+          <t>03/09/2023 23:29</t>
         </is>
       </c>
       <c r="V216" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bragantino/YTl7liBN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
         </is>
       </c>
     </row>
@@ -20445,71 +20445,71 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="L218" t="n">
-        <v>2.11</v>
+        <v>2.47</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:26</t>
+          <t>03/09/2023 23:19</t>
         </is>
       </c>
       <c r="N218" t="n">
-        <v>3.43</v>
+        <v>3.32</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>3.33</v>
+        <v>3.14</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:09</t>
         </is>
       </c>
       <c r="R218" t="n">
-        <v>4.04</v>
+        <v>3.47</v>
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t>27/08/2023 22:42</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="T218" t="n">
-        <v>3.95</v>
+        <v>3.29</v>
       </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>03/09/2023 23:29</t>
+          <t>03/09/2023 23:07</t>
         </is>
       </c>
       <c r="V218" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-vasco/4lJL7EBo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-bragantino/YTl7liBN/</t>
         </is>
       </c>
     </row>
@@ -20537,62 +20537,62 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I219" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J219" t="n">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>04/09/2023 08:42</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="L219" t="n">
-        <v>1.81</v>
+        <v>2.71</v>
       </c>
       <c r="M219" t="inlineStr">
         <is>
+          <t>14/09/2023 02:29</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>04/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P219" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
           <t>14/09/2023 02:21</t>
         </is>
       </c>
-      <c r="N219" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="O219" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="P219" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Q219" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:22</t>
-        </is>
-      </c>
       <c r="R219" t="n">
-        <v>4.75</v>
+        <v>3.38</v>
       </c>
       <c r="S219" t="inlineStr">
         <is>
-          <t>04/09/2023 08:42</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="T219" t="n">
-        <v>5.02</v>
+        <v>3.01</v>
       </c>
       <c r="U219" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
       </c>
       <c r="V219" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-athletico-pr/CEMT5htb/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-sao-paulo/bVhBq2Pe/</t>
         </is>
       </c>
     </row>
@@ -20629,71 +20629,71 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J220" t="n">
-        <v>2.35</v>
+        <v>1.72</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>04/09/2023 18:12</t>
+          <t>04/09/2023 08:42</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>2.71</v>
+        <v>1.81</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
+          <t>14/09/2023 02:21</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P220" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>14/09/2023 02:22</t>
+        </is>
+      </c>
+      <c r="R220" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T220" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
           <t>14/09/2023 02:29</t>
         </is>
       </c>
-      <c r="N220" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="O220" t="inlineStr">
-        <is>
-          <t>04/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P220" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q220" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:21</t>
-        </is>
-      </c>
-      <c r="R220" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="S220" t="inlineStr">
-        <is>
-          <t>04/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T220" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="U220" t="inlineStr">
-        <is>
-          <t>14/09/2023 02:29</t>
-        </is>
-      </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-sao-paulo/bVhBq2Pe/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-athletico-pr/CEMT5htb/</t>
         </is>
       </c>
     </row>
@@ -20721,22 +20721,22 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I221" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J221" t="n">
-        <v>1.74</v>
+        <v>2.7</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -20744,15 +20744,15 @@
         </is>
       </c>
       <c r="L221" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>14/09/2023 23:53</t>
+          <t>14/09/2023 23:55</t>
         </is>
       </c>
       <c r="N221" t="n">
-        <v>3.74</v>
+        <v>3.08</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
@@ -20760,15 +20760,15 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>3.87</v>
+        <v>3.12</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>14/09/2023 23:57</t>
+          <t>14/09/2023 23:55</t>
         </is>
       </c>
       <c r="R221" t="n">
-        <v>5.21</v>
+        <v>2.92</v>
       </c>
       <c r="S221" t="inlineStr">
         <is>
@@ -20776,16 +20776,16 @@
         </is>
       </c>
       <c r="T221" t="n">
-        <v>6.84</v>
+        <v>3.44</v>
       </c>
       <c r="U221" t="inlineStr">
         <is>
-          <t>14/09/2023 23:57</t>
+          <t>14/09/2023 23:54</t>
         </is>
       </c>
       <c r="V221" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-corinthians/jPuc75H2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-cruzeiro/nXEt3jQG/</t>
         </is>
       </c>
     </row>
@@ -20813,22 +20813,22 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I222" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J222" t="n">
-        <v>2.7</v>
+        <v>1.74</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -20836,15 +20836,15 @@
         </is>
       </c>
       <c r="L222" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>14/09/2023 23:55</t>
+          <t>14/09/2023 23:53</t>
         </is>
       </c>
       <c r="N222" t="n">
-        <v>3.08</v>
+        <v>3.74</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
@@ -20852,15 +20852,15 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>3.12</v>
+        <v>3.87</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>14/09/2023 23:55</t>
+          <t>14/09/2023 23:57</t>
         </is>
       </c>
       <c r="R222" t="n">
-        <v>2.92</v>
+        <v>5.21</v>
       </c>
       <c r="S222" t="inlineStr">
         <is>
@@ -20868,16 +20868,16 @@
         </is>
       </c>
       <c r="T222" t="n">
-        <v>3.44</v>
+        <v>6.84</v>
       </c>
       <c r="U222" t="inlineStr">
         <is>
-          <t>14/09/2023 23:54</t>
+          <t>14/09/2023 23:57</t>
         </is>
       </c>
       <c r="V222" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-cruzeiro/nXEt3jQG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-corinthians/jPuc75H2/</t>
         </is>
       </c>
     </row>
@@ -22258,6 +22258,98 @@
       <c r="V237" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-palmeiras/WdWidu91/</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45192.04166666666</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Botafogo RJ</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>19/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>23/09/2023 00:51</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>19/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P238" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>23/09/2023 00:51</t>
+        </is>
+      </c>
+      <c r="R238" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>19/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T238" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>23/09/2023 00:51</t>
+        </is>
+      </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-botafogo-rj/dQOuasPr/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V238"/>
+  <dimension ref="A1:V239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22353,6 +22353,98 @@
         </is>
       </c>
     </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45193.08333333334</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Cuiaba</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>17/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>24/09/2023 01:51</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>17/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P239" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>24/09/2023 01:58</t>
+        </is>
+      </c>
+      <c r="R239" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>17/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T239" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>24/09/2023 01:58</t>
+        </is>
+      </c>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-cuiaba/xzXmcLge/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/brazil_serie-a_2023.xlsx
+++ b/2023/brazil_serie-a_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V239"/>
+  <dimension ref="A1:V240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.69</v>
+        <v>1.64</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.46</v>
+        <v>1.64</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:22</t>
+          <t>15/04/2023 23:27</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.05</v>
+        <v>4.15</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.17</v>
+        <v>3.69</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:25</t>
+          <t>15/04/2023 23:27</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>5.21</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>08/04/2023 23:42</t>
+          <t>09/04/2023 08:36</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.26</v>
+        <v>6.64</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>15/04/2023 23:25</t>
+          <t>15/04/2023 23:28</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-sao-paulo/vFRENgWQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-goias/Sv02EkgD/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.64</v>
+        <v>2.69</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.64</v>
+        <v>2.46</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:27</t>
+          <t>15/04/2023 23:22</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.15</v>
+        <v>3.05</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.69</v>
+        <v>3.17</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:27</t>
+          <t>15/04/2023 23:25</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>5.21</v>
+        <v>3</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>09/04/2023 08:36</t>
+          <t>08/04/2023 23:42</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>6.64</v>
+        <v>3.26</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>15/04/2023 23:28</t>
+          <t>15/04/2023 23:25</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-goias/Sv02EkgD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-sao-paulo/vFRENgWQ/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.66</v>
+        <v>2.32</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.94</v>
+        <v>2.65</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>22/04/2023 23:18</t>
+          <t>22/04/2023 22:56</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.92</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,32 +1624,32 @@
         </is>
       </c>
       <c r="P13" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>22/04/2023 20:05</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
         <v>3.42</v>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>22/04/2023 23:18</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>5.68</v>
-      </c>
       <c r="S13" t="inlineStr">
         <is>
           <t>17/04/2023 18:42</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>4.51</v>
+        <v>3.04</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>22/04/2023 23:18</t>
+          <t>22/04/2023 22:54</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-america-mg/WWQII4pa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bragantino/xO6mYqpn/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.32</v>
+        <v>1.66</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.65</v>
+        <v>1.94</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>22/04/2023 22:56</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.25</v>
+        <v>3.92</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.11</v>
+        <v>3.42</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>22/04/2023 20:05</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.42</v>
+        <v>5.68</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.04</v>
+        <v>4.51</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>22/04/2023 22:54</t>
+          <t>22/04/2023 23:18</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bragantino/xO6mYqpn/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-america-mg/WWQII4pa/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>3</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>America MG</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>2</v>
-      </c>
       <c r="J24" t="n">
-        <v>2.04</v>
+        <v>1.75</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.41</v>
+        <v>1.82</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.54</v>
+        <v>3.77</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.22</v>
+        <v>3.67</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.73</v>
+        <v>5.06</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>24/04/2023 05:42</t>
+          <t>23/04/2023 05:13</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.31</v>
+        <v>4.81</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/04/2023 23:26</t>
+          <t>29/04/2023 23:29</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-america-mg/63b4U1qB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-cruzeiro/0Qc8TLbH/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.82</v>
+        <v>2.41</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.77</v>
+        <v>3.54</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.67</v>
+        <v>3.22</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.06</v>
+        <v>3.73</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>23/04/2023 05:13</t>
+          <t>24/04/2023 05:42</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>4.81</v>
+        <v>3.31</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>29/04/2023 23:29</t>
+          <t>29/04/2023 23:26</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-cruzeiro/0Qc8TLbH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-america-mg/63b4U1qB/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Palmeiras</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>5</v>
-      </c>
       <c r="J39" t="n">
-        <v>4.55</v>
+        <v>2.85</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>5.53</v>
+        <v>3.72</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.7</v>
+        <v>3.66</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.99</v>
+        <v>3.33</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1.81</v>
+        <v>2.46</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1.67</v>
+        <v>2.18</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>07/05/2023 23:20</t>
+          <t>07/05/2023 23:29</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-atletico-mg/0QJwq1b4/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>2.85</v>
+        <v>4.55</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3.72</v>
+        <v>5.53</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.66</v>
+        <v>3.7</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.33</v>
+        <v>3.99</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.46</v>
+        <v>1.81</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.18</v>
+        <v>1.67</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>07/05/2023 23:29</t>
+          <t>07/05/2023 23:20</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-atletico-mg/0QJwq1b4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-palmeiras/jFCjtarN/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:51</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.64</v>
+        <v>3.68</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.14</v>
+        <v>3.77</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:59</t>
+          <t>10/05/2023 23:45</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.93</v>
+        <v>4.31</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>07/05/2023 21:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.65</v>
+        <v>4.62</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>10/05/2023 23:59</t>
+          <t>10/05/2023 23:48</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-bahia/r9yUgICM/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:51</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.68</v>
+        <v>3.64</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.77</v>
+        <v>3.14</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:45</t>
+          <t>10/05/2023 23:59</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.31</v>
+        <v>3.93</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 21:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.62</v>
+        <v>3.65</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>10/05/2023 23:48</t>
+          <t>10/05/2023 23:59</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-america-mg/xWzYhxSS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-bahia/r9yUgICM/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.76</v>
+        <v>1.45</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>07/05/2023 02:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.74</v>
+        <v>1.41</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>11/05/2023 02:27</t>
+          <t>11/05/2023 02:29</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.42</v>
+        <v>4.72</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>07/05/2023 02:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.21</v>
+        <v>4.71</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>11/05/2023 02:25</t>
+          <t>11/05/2023 02:12</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.6</v>
+        <v>7.37</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>07/05/2023 02:12</t>
+          <t>07/05/2023 23:42</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.85</v>
+        <v>8.65</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>11/05/2023 02:27</t>
+          <t>11/05/2023 02:12</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-fluminense/vuNaldzp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-gremio/U5XPfbcG/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>1.45</v>
+        <v>2.76</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 02:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.41</v>
+        <v>2.74</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>11/05/2023 02:29</t>
+          <t>11/05/2023 02:27</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.72</v>
+        <v>3.42</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 02:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.71</v>
+        <v>3.21</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>11/05/2023 02:12</t>
+          <t>11/05/2023 02:25</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>7.37</v>
+        <v>2.6</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>07/05/2023 23:42</t>
+          <t>07/05/2023 02:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>8.65</v>
+        <v>2.85</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>11/05/2023 02:12</t>
+          <t>11/05/2023 02:27</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-gremio/U5XPfbcG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-fluminense/vuNaldzp/</t>
         </is>
       </c>
     </row>
@@ -5817,30 +5817,30 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>2</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Botafogo RJ</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
       <c r="J59" t="n">
-        <v>2.91</v>
+        <v>1.68</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>12/05/2023 00:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.27</v>
+        <v>1.63</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5848,15 +5848,15 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.46</v>
+        <v>3.98</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>12/05/2023 00:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.29</v>
+        <v>3.83</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5864,15 +5864,15 @@
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.5</v>
+        <v>5.07</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>12/05/2023 00:42</t>
+          <t>12/05/2023 00:12</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.4</v>
+        <v>6.41</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-botafogo-rj/MyjXlTQf/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-coritiba/6PiqnRAD/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J60" t="n">
-        <v>1.68</v>
+        <v>2.16</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.63</v>
+        <v>2.56</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
+          <t>14/05/2023 23:27</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>11/05/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
           <t>14/05/2023 23:29</t>
         </is>
       </c>
-      <c r="N60" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>12/05/2023 00:12</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>14/05/2023 23:29</t>
-        </is>
-      </c>
       <c r="R60" t="n">
-        <v>5.07</v>
+        <v>3.44</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>12/05/2023 00:12</t>
+          <t>11/05/2023 02:42</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>6.41</v>
+        <v>2.87</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>14/05/2023 23:29</t>
+          <t>14/05/2023 23:27</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-coritiba/6PiqnRAD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-cruzeiro/MXZV9U2K/</t>
         </is>
       </c>
     </row>
@@ -6001,46 +6001,46 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.16</v>
+        <v>2.91</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:42</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.56</v>
+        <v>3.27</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>14/05/2023 23:27</t>
+          <t>14/05/2023 23:29</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:42</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.47</v>
+        <v>3.29</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -6048,24 +6048,24 @@
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.44</v>
+        <v>2.5</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>11/05/2023 02:42</t>
+          <t>12/05/2023 00:42</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.87</v>
+        <v>2.4</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>14/05/2023 23:27</t>
+          <t>14/05/2023 23:29</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-cruzeiro/MXZV9U2K/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-botafogo-rj/MyjXlTQf/</t>
         </is>
       </c>
     </row>
@@ -6185,30 +6185,30 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>1</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
       <c r="J63" t="n">
-        <v>4.39</v>
+        <v>2.63</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>15/05/2023 09:42</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4.83</v>
+        <v>3.05</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,40 +6216,40 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.46</v>
+        <v>3.48</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>15/05/2023 09:42</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
+          <t>20/05/2023 23:26</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>15/05/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
           <t>20/05/2023 23:29</t>
         </is>
       </c>
-      <c r="R63" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>15/05/2023 04:42</t>
-        </is>
-      </c>
-      <c r="T63" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>20/05/2023 23:29</t>
-        </is>
-      </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-fortaleza/l8gDM7nQ/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2.05</v>
+        <v>2.78</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.85</v>
+        <v>2.77</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:06</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.43</v>
+        <v>3.31</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.64</v>
+        <v>3.32</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.83</v>
+        <v>2.72</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.63</v>
+        <v>2.74</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 23:28</t>
+          <t>20/05/2023 22:51</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
         </is>
       </c>
     </row>
@@ -6369,30 +6369,30 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>2.78</v>
+        <v>1.94</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.77</v>
+        <v>1.87</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6400,15 +6400,15 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.31</v>
+        <v>3.59</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -6416,24 +6416,24 @@
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.72</v>
+        <v>4.03</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.74</v>
+        <v>4.88</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 22:51</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/botafogo-rj-fluminense/hGQ148Qs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:06</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.59</v>
+        <v>3.43</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.44</v>
+        <v>3.64</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>4.03</v>
+        <v>3.83</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>15/05/2023 04:42</t>
+          <t>14/05/2023 23:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.88</v>
+        <v>4.63</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>20/05/2023 23:29</t>
+          <t>20/05/2023 23:28</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-vasco/zuG63Sul/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-athletico-pr/MeEE16A0/</t>
         </is>
       </c>
     </row>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>2</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Fortaleza</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
       <c r="J67" t="n">
-        <v>2.63</v>
+        <v>4.39</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3.05</v>
+        <v>4.83</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,31 +6584,31 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.48</v>
+        <v>3.46</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.39</v>
+        <v>3.45</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>20/05/2023 23:26</t>
+          <t>20/05/2023 23:29</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.69</v>
+        <v>1.91</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>15/05/2023 09:42</t>
+          <t>15/05/2023 04:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.47</v>
+        <v>1.88</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-fortaleza/l8gDM7nQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-atletico-mg/dE6Rb4fJ/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,14 +7205,14 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.96</v>
+        <v>1.59</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>27/05/2023 23:29</t>
+          <t>27/05/2023 23:28</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.49</v>
+        <v>4.27</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.44</v>
+        <v>3.77</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>27/05/2023 23:29</t>
+          <t>27/05/2023 23:28</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.09</v>
+        <v>5.56</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.74</v>
+        <v>5.63</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>27/05/2023 23:29</t>
+          <t>27/05/2023 23:28</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-coritiba/AZ1GFgjt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-cruzeiro/U1ytIRfs/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.59</v>
+        <v>1.96</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>27/05/2023 23:28</t>
+          <t>27/05/2023 23:29</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4.27</v>
+        <v>3.49</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.77</v>
+        <v>3.44</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>27/05/2023 23:28</t>
+          <t>27/05/2023 23:29</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>5.56</v>
+        <v>4.09</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.63</v>
+        <v>4.74</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>27/05/2023 23:28</t>
+          <t>27/05/2023 23:29</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-cruzeiro/U1ytIRfs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-coritiba/AZ1GFgjt/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.32</v>
+        <v>2.23</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>29/05/2023 00:12</t>
+          <t>29/05/2023 02:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.93</v>
+        <v>1.99</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>03/06/2023 23:20</t>
+          <t>03/06/2023 23:29</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>29/05/2023 00:12</t>
+          <t>29/05/2023 02:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.14</v>
+        <v>3.5</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>03/06/2023 23:20</t>
+          <t>03/06/2023 23:29</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.24</v>
+        <v>3.38</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>29/05/2023 00:12</t>
+          <t>29/05/2023 02:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.72</v>
+        <v>4.16</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>03/06/2023 23:20</t>
+          <t>03/06/2023 23:29</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-corinthians/MgmjSWZo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-botafogo-rj/WU7t8TlU/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
         <v>1</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Botafogo RJ</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
       <c r="J84" t="n">
-        <v>2.23</v>
+        <v>3.12</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>29/05/2023 02:12</t>
+          <t>29/05/2023 07:12</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.99</v>
+        <v>3.53</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
+          <t>03/06/2023 23:26</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>29/05/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
           <t>03/06/2023 23:29</t>
         </is>
       </c>
-      <c r="N84" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>29/05/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>03/06/2023 23:29</t>
-        </is>
-      </c>
       <c r="R84" t="n">
-        <v>3.38</v>
+        <v>2.41</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>29/05/2023 02:12</t>
+          <t>29/05/2023 07:12</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>4.16</v>
+        <v>2.37</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>03/06/2023 23:29</t>
+          <t>03/06/2023 23:26</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-botafogo-rj/WU7t8TlU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-atletico-mg/AFJX9kKH/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
       <c r="J85" t="n">
-        <v>3.12</v>
+        <v>2.32</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>29/05/2023 07:12</t>
+          <t>29/05/2023 00:12</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.53</v>
+        <v>2.93</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>03/06/2023 23:26</t>
+          <t>03/06/2023 23:20</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>29/05/2023 07:12</t>
+          <t>29/05/2023 00:12</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>03/06/2023 23:29</t>
+          <t>03/06/2023 23:20</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.41</v>
+        <v>3.24</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>29/05/2023 07:12</t>
+          <t>29/05/2023 00:12</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.37</v>
+        <v>2.72</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>03/06/2023 23:26</t>
+          <t>03/06/2023 23:20</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-atletico-mg/AFJX9kKH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-corinthians/MgmjSWZo/</t>
         </is>
       </c>
     </row>
@@ -9589,62 +9589,62 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>3.71</v>
+        <v>1.55</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>06/06/2023 01:12</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>3.49</v>
+        <v>1.61</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
+          <t>11/06/2023 23:27</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>06/06/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
           <t>11/06/2023 23:29</t>
         </is>
       </c>
-      <c r="N100" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>05/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>11/06/2023 23:27</t>
-        </is>
-      </c>
       <c r="R100" t="n">
-        <v>2.09</v>
+        <v>5.84</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>05/06/2023 02:42</t>
+          <t>06/06/2023 01:12</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.28</v>
+        <v>5.82</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-fluminense/6sZBN8lH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-gremio/4IxeRjkh/</t>
         </is>
       </c>
     </row>
@@ -9681,71 +9681,71 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>1.55</v>
+        <v>3.71</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>06/06/2023 01:12</t>
+          <t>05/06/2023 02:42</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.61</v>
+        <v>3.49</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
+          <t>11/06/2023 23:29</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>05/06/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
           <t>11/06/2023 23:27</t>
         </is>
       </c>
-      <c r="N101" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>06/06/2023 01:12</t>
-        </is>
-      </c>
-      <c r="P101" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Q101" t="inlineStr">
+      <c r="R101" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>05/06/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U101" t="inlineStr">
         <is>
           <t>11/06/2023 23:29</t>
         </is>
       </c>
-      <c r="R101" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>06/06/2023 01:12</t>
-        </is>
-      </c>
-      <c r="T101" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>11/06/2023 23:29</t>
-        </is>
-      </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-gremio/4IxeRjkh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-fluminense/6sZBN8lH/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,22 +10057,22 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2.06</v>
+        <v>4.31</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.97</v>
+        <v>3.68</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -10080,15 +10080,15 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.47</v>
+        <v>3.63</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -10096,15 +10096,15 @@
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.74</v>
+        <v>1.9</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>14/06/2023 13:12</t>
+          <t>14/06/2023 10:42</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.63</v>
+        <v>2.12</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-atletico-mg/Q3iwRse9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-palmeiras/6NCCusA2/</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -10149,22 +10149,22 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>4.31</v>
+        <v>2.06</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.68</v>
+        <v>2.97</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -10172,15 +10172,15 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.63</v>
+        <v>3.47</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -10188,15 +10188,15 @@
         </is>
       </c>
       <c r="R106" t="n">
-        <v>1.9</v>
+        <v>3.74</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>14/06/2023 10:42</t>
+          <t>14/06/2023 13:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.12</v>
+        <v>2.63</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-palmeiras/6NCCusA2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-atletico-mg/Q3iwRse9/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,63 +10333,63 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
       <c r="J108" t="n">
+        <v>3</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>19/06/2023 02:11</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>23/06/2023 00:59</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>19/06/2023 02:11</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
         <v>3.01</v>
       </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>17/06/2023 22:12</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="M108" t="inlineStr">
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>23/06/2023 00:58</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>19/06/2023 02:11</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U108" t="inlineStr">
         <is>
           <t>23/06/2023 00:59</t>
         </is>
       </c>
-      <c r="N108" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>17/06/2023 22:12</t>
-        </is>
-      </c>
-      <c r="P108" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="Q108" t="inlineStr">
-        <is>
-          <t>23/06/2023 00:58</t>
-        </is>
-      </c>
-      <c r="R108" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>17/06/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T108" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="U108" t="inlineStr">
-        <is>
-          <t>23/06/2023 00:59</t>
-        </is>
-      </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-botafogo-rj/IcGGv1P8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-internacional/hKOUGcX1/</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10517,22 +10517,22 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>19/06/2023 02:11</t>
+          <t>17/06/2023 22:12</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
@@ -10540,15 +10540,15 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.12</v>
+        <v>3.16</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>19/06/2023 02:11</t>
+          <t>17/06/2023 22:12</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.01</v>
+        <v>2.98</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -10556,15 +10556,15 @@
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>19/06/2023 02:11</t>
+          <t>17/06/2023 22:12</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.02</v>
+        <v>3.08</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-internacional/hKOUGcX1/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-botafogo-rj/IcGGv1P8/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,38 +11345,38 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J119" t="n">
-        <v>1.43</v>
+        <v>3.96</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>18/06/2023 23:41</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.43</v>
+        <v>3.48</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>25/06/2023 23:26</t>
+          <t>25/06/2023 23:29</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>18/06/2023 23:41</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>4.79</v>
+        <v>3.21</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -11384,15 +11384,15 @@
         </is>
       </c>
       <c r="R119" t="n">
-        <v>7.69</v>
+        <v>2.03</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>18/06/2023 23:41</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>8.140000000000001</v>
+        <v>2.33</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-goias/hKp0WxXl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-flamengo-rj/AeeeXIHr/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,38 +11437,38 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>3.96</v>
+        <v>1.43</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>18/06/2023 23:41</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>3.48</v>
+        <v>1.43</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>25/06/2023 23:29</t>
+          <t>25/06/2023 23:26</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>18/06/2023 23:41</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.21</v>
+        <v>4.79</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -11476,15 +11476,15 @@
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.03</v>
+        <v>7.69</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>18/06/2023 23:41</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.33</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-flamengo-rj/AeeeXIHr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-goias/hKp0WxXl/</t>
         </is>
       </c>
     </row>
@@ -11705,71 +11705,71 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
         <v>2</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Fortaleza</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
       <c r="J123" t="n">
-        <v>1.64</v>
+        <v>2.13</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>25/06/2023 21:11</t>
         </is>
       </c>
       <c r="L123" t="n">
-        <v>1.61</v>
+        <v>2.94</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>01/07/2023 23:14</t>
+          <t>01/07/2023 23:27</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>4.14</v>
+        <v>3.48</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>25/06/2023 21:11</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>4.11</v>
+        <v>3.28</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>01/07/2023 23:14</t>
+          <t>01/07/2023 23:27</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>5.44</v>
+        <v>3.55</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>25/06/2023 23:41</t>
+          <t>25/06/2023 21:11</t>
         </is>
       </c>
       <c r="T123" t="n">
-        <v>6</v>
+        <v>2.62</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>01/07/2023 23:14</t>
+          <t>01/07/2023 23:27</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-fortaleza/CtiejbOK/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-gremio/CfWT4cwE/</t>
         </is>
       </c>
     </row>
@@ -11797,71 +11797,71 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>2.13</v>
+        <v>1.64</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>25/06/2023 21:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.94</v>
+        <v>1.61</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>01/07/2023 23:27</t>
+          <t>01/07/2023 23:14</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.48</v>
+        <v>4.14</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>25/06/2023 21:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.28</v>
+        <v>4.11</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>01/07/2023 23:27</t>
+          <t>01/07/2023 23:14</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.55</v>
+        <v>5.44</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>25/06/2023 21:11</t>
+          <t>25/06/2023 23:41</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>2.62</v>
+        <v>6</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>01/07/2023 23:27</t>
+          <t>01/07/2023 23:14</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-gremio/CfWT4cwE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-fortaleza/CtiejbOK/</t>
         </is>
       </c>
     </row>
@@ -12533,71 +12533,71 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>2.16</v>
+        <v>2.67</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>02/07/2023 23:42</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1.79</v>
+        <v>2.98</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>08/07/2023 20:43</t>
+          <t>08/07/2023 20:59</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.45</v>
+        <v>3.29</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>02/07/2023 23:42</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.5</v>
+        <v>3.23</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>08/07/2023 20:58</t>
+          <t>08/07/2023 20:51</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>3.48</v>
+        <v>2.77</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>02/07/2023 23:42</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="T132" t="n">
-        <v>5.39</v>
+        <v>2.61</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>08/07/2023 20:58</t>
+          <t>08/07/2023 20:57</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bahia/v98u08in/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-cruzeiro/AVB4beGs/</t>
         </is>
       </c>
     </row>
@@ -12625,71 +12625,71 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>2.67</v>
+        <v>2.16</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>02/07/2023 23:42</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.98</v>
+        <v>1.79</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>08/07/2023 20:59</t>
+          <t>08/07/2023 20:43</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>02/07/2023 23:42</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>08/07/2023 20:51</t>
+          <t>08/07/2023 20:58</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>2.77</v>
+        <v>3.48</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>02/07/2023 23:42</t>
         </is>
       </c>
       <c r="T133" t="n">
-        <v>2.61</v>
+        <v>5.39</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>08/07/2023 20:57</t>
+          <t>08/07/2023 20:58</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/vasco-cruzeiro/AVB4beGs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-bahia/v98u08in/</t>
         </is>
       </c>
     </row>
@@ -12717,71 +12717,71 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>1.55</v>
+        <v>2.35</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>04/07/2023 01:12</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.79</v>
+        <v>2.17</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>08/07/2023 23:26</t>
+          <t>08/07/2023 23:29</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>4.02</v>
+        <v>3.25</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>04/07/2023 01:12</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.32</v>
+        <v>3.41</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>08/07/2023 23:27</t>
+          <t>08/07/2023 23:29</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>6.72</v>
+        <v>3.35</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>04/07/2023 01:12</t>
         </is>
       </c>
       <c r="T134" t="n">
-        <v>5.91</v>
+        <v>3.64</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>08/07/2023 23:27</t>
+          <t>08/07/2023 23:29</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-corinthians/vB3LfDF6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-america-mg/QR1ThipJ/</t>
         </is>
       </c>
     </row>
@@ -12809,71 +12809,71 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>2.35</v>
+        <v>1.55</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>04/07/2023 01:12</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.17</v>
+        <v>1.79</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>08/07/2023 23:29</t>
+          <t>08/07/2023 23:26</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.25</v>
+        <v>4.02</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>04/07/2023 01:12</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.41</v>
+        <v>3.32</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>08/07/2023 23:29</t>
+          <t>08/07/2023 23:27</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.35</v>
+        <v>6.72</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>04/07/2023 01:12</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="T135" t="n">
-        <v>3.64</v>
+        <v>5.91</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>08/07/2023 23:29</t>
+          <t>08/07/2023 23:27</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-america-mg/QR1ThipJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-corinthians/vB3LfDF6/</t>
         </is>
       </c>
     </row>
@@ -13085,71 +13085,71 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>02/07/2023 06:12</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>09/07/2023 20:57</t>
+          <t>09/07/2023 20:59</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.91</v>
+        <v>3.77</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>02/07/2023 06:12</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.44</v>
+        <v>3.81</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>09/07/2023 20:57</t>
+          <t>09/07/2023 20:44</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>5.79</v>
+        <v>4.42</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>02/07/2023 06:12</t>
+          <t>02/07/2023 21:12</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>4.58</v>
+        <v>5.75</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>09/07/2023 20:57</t>
+          <t>09/07/2023 20:59</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-internacional/8MPx3y8Q/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-sao-paulo/0K4Heg00/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>02/07/2023 06:12</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>09/07/2023 20:59</t>
+          <t>09/07/2023 20:57</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.77</v>
+        <v>3.91</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>02/07/2023 06:12</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.81</v>
+        <v>3.44</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>09/07/2023 20:44</t>
+          <t>09/07/2023 20:57</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>4.42</v>
+        <v>5.79</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>02/07/2023 21:12</t>
+          <t>02/07/2023 06:12</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>5.75</v>
+        <v>4.58</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>09/07/2023 20:59</t>
+          <t>09/07/2023 20:57</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-sao-paulo/0K4Heg00/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-internacional/8MPx3y8Q/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Botafogo RJ</t>
-        </is>
-      </c>
-      <c r="I140" t="n">
-        <v>2</v>
-      </c>
       <c r="J140" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>09/07/2023 23:28</t>
+          <t>09/07/2023 23:26</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.69</v>
+        <v>4.11</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>09/07/2023 23:06</t>
+          <t>09/07/2023 23:26</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>4.27</v>
+        <v>4.51</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>4.76</v>
+        <v>7.49</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>09/07/2023 23:04</t>
+          <t>09/07/2023 23:26</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-botafogo-rj/ny3PgXUC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-athletico-pr/Q54y1lxt/</t>
         </is>
       </c>
     </row>
@@ -13361,71 +13361,71 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J141" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>02/07/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
         <v>1.85</v>
       </c>
-      <c r="K141" t="inlineStr">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>09/07/2023 23:28</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O141" t="inlineStr">
         <is>
           <t>02/07/2023 21:12</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>09/07/2023 23:26</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O141" t="inlineStr">
+      <c r="P141" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>09/07/2023 23:06</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S141" t="inlineStr">
         <is>
           <t>02/07/2023 21:12</t>
         </is>
       </c>
-      <c r="P141" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="Q141" t="inlineStr">
-        <is>
-          <t>09/07/2023 23:26</t>
-        </is>
-      </c>
-      <c r="R141" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>02/07/2023 21:12</t>
-        </is>
-      </c>
       <c r="T141" t="n">
-        <v>7.49</v>
+        <v>4.76</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>09/07/2023 23:26</t>
+          <t>09/07/2023 23:04</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-athletico-pr/Q54y1lxt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-botafogo-rj/ny3PgXUC/</t>
         </is>
       </c>
     </row>
@@ -13913,71 +13913,71 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1.67</v>
+        <v>3.15</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 22:42</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>1.59</v>
+        <v>2.83</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>16/07/2023 23:16</t>
+          <t>16/07/2023 23:28</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.93</v>
+        <v>3.32</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 22:42</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>4.14</v>
+        <v>3.15</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>16/07/2023 23:29</t>
+          <t>16/07/2023 23:28</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>5.5</v>
+        <v>2.38</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>09/07/2023 23:42</t>
+          <t>09/07/2023 22:42</t>
         </is>
       </c>
       <c r="T147" t="n">
-        <v>6.25</v>
+        <v>2.8</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>16/07/2023 23:29</t>
+          <t>16/07/2023 23:28</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-bahia/bJvykrqo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-palmeiras/dAh9gOzU/</t>
         </is>
       </c>
     </row>
@@ -14005,71 +14005,71 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>3.15</v>
+        <v>1.67</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>09/07/2023 22:42</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.83</v>
+        <v>1.59</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>16/07/2023 23:28</t>
+          <t>16/07/2023 23:16</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.32</v>
+        <v>3.93</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>09/07/2023 22:42</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.15</v>
+        <v>4.14</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>16/07/2023 23:28</t>
+          <t>16/07/2023 23:29</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>2.38</v>
+        <v>5.5</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>09/07/2023 22:42</t>
+          <t>09/07/2023 23:42</t>
         </is>
       </c>
       <c r="T148" t="n">
-        <v>2.8</v>
+        <v>6.25</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>16/07/2023 23:28</t>
+          <t>16/07/2023 23:29</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-palmeiras/dAh9gOzU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-bahia/bJvykrqo/</t>
         </is>
       </c>
     </row>
@@ -14189,71 +14189,71 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>22/07/2023 20:50</t>
+          <t>22/07/2023 20:57</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>4.23</v>
+        <v>5.28</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>4.05</v>
+        <v>5.17</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>22/07/2023 20:50</t>
+          <t>22/07/2023 20:59</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>5.78</v>
+        <v>7.6</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="T150" t="n">
-        <v>7.15</v>
+        <v>10.13</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>22/07/2023 20:50</t>
+          <t>22/07/2023 20:59</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-fortaleza/GEPZ9qLA/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-america-mg/8lMRB5jb/</t>
         </is>
       </c>
     </row>
@@ -14281,71 +14281,71 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="L151" t="n">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>22/07/2023 20:57</t>
+          <t>22/07/2023 20:50</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>5.28</v>
+        <v>4.23</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>5.17</v>
+        <v>4.05</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>22/07/2023 20:59</t>
+          <t>22/07/2023 20:50</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>7.6</v>
+        <v>5.78</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="T151" t="n">
-        <v>10.13</v>
+        <v>7.15</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>22/07/2023 20:59</t>
+          <t>22/07/2023 20:50</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/flamengo-rj-america-mg/8lMRB5jb/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/palmeiras-fortaleza/GEPZ9qLA/</t>
         </is>
       </c>
     </row>
@@ -14373,30 +14373,30 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>2.86</v>
+        <v>2.28</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
@@ -14404,15 +14404,15 @@
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.01</v>
+        <v>3.11</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -14420,15 +14420,15 @@
         </is>
       </c>
       <c r="R152" t="n">
-        <v>2.81</v>
+        <v>3.32</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="T152" t="n">
-        <v>2.9</v>
+        <v>3.74</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-sao-paulo/CdNdPOKc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-corinthians/Y5OhQ45i/</t>
         </is>
       </c>
     </row>
@@ -14465,30 +14465,30 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="L153" t="n">
-        <v>2.28</v>
+        <v>2.86</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
@@ -14496,15 +14496,15 @@
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.11</v>
+        <v>3.01</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -14512,15 +14512,15 @@
         </is>
       </c>
       <c r="R153" t="n">
-        <v>3.32</v>
+        <v>2.81</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="T153" t="n">
-        <v>3.74</v>
+        <v>2.9</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-corinthians/Y5OhQ45i/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cuiaba-sao-paulo/CdNdPOKc/</t>
         </is>
       </c>
     </row>
@@ -14649,30 +14649,30 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J155" t="n">
-        <v>1.83</v>
+        <v>2.87</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="L155" t="n">
-        <v>1.75</v>
+        <v>2.99</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
@@ -14680,40 +14680,40 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.62</v>
+        <v>3</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.72</v>
+        <v>2.97</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:48</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>4.59</v>
+        <v>2.8</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>16/07/2023 23:42</t>
+          <t>16/07/2023 21:12</t>
         </is>
       </c>
       <c r="T155" t="n">
-        <v>5.31</v>
+        <v>2.81</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:58</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
         </is>
       </c>
     </row>
@@ -14741,71 +14741,71 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>2.87</v>
+        <v>1.63</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.99</v>
+        <v>1.54</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:59</t>
+          <t>23/07/2023 20:53</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3</v>
+        <v>3.82</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>2.97</v>
+        <v>4.05</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:48</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>16/07/2023 21:12</t>
+          <t>18/07/2023 01:12</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>2.81</v>
+        <v>7.32</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>23/07/2023 20:58</t>
+          <t>23/07/2023 20:55</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-botafogo-rj/f5Ow93zH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
         </is>
       </c>
     </row>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -14841,63 +14841,63 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:53</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.82</v>
+        <v>3.62</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>4.05</v>
+        <v>3.72</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>5.9</v>
+        <v>4.59</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>18/07/2023 01:12</t>
+          <t>16/07/2023 23:42</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>7.32</v>
+        <v>5.31</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>23/07/2023 20:55</t>
+          <t>23/07/2023 20:59</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-goias/0Igv7s5T/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bragantino-internacional/MRfz8NkN/</t>
         </is>
       </c>
     </row>
@@ -15109,71 +15109,71 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J160" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:51</t>
+          <t>29/07/2023 20:45</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.23</v>
+        <v>3.38</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.44</v>
+        <v>3.49</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:59</t>
+          <t>29/07/2023 20:45</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>4.99</v>
+        <v>3.98</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>23/07/2023 21:12</t>
+          <t>23/07/2023 23:42</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>5.41</v>
+        <v>4.87</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>29/07/2023 20:59</t>
+          <t>29/07/2023 20:58</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-cruzeiro/6JbhEbCd/</t>
         </is>
       </c>
     </row>
@@ -15201,7 +15201,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G161" t="n">
@@ -15209,38 +15209,38 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1.55</v>
+        <v>1.81</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>29/07/2023 20:58</t>
+          <t>29/07/2023 20:51</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3.83</v>
+        <v>3.23</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3.98</v>
+        <v>3.44</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -15248,15 +15248,15 @@
         </is>
       </c>
       <c r="R161" t="n">
-        <v>6.02</v>
+        <v>4.99</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 21:12</t>
         </is>
       </c>
       <c r="T161" t="n">
-        <v>7.47</v>
+        <v>5.41</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-santos/tWR0Orz4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-cuiaba/SSalFvcj/</t>
         </is>
       </c>
     </row>
@@ -15293,71 +15293,71 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>2.03</v>
+        <v>1.62</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:45</t>
+          <t>29/07/2023 20:58</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3.38</v>
+        <v>3.83</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3.49</v>
+        <v>3.98</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:45</t>
+          <t>29/07/2023 20:59</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>3.98</v>
+        <v>6.02</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>23/07/2023 23:42</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T162" t="n">
-        <v>4.87</v>
+        <v>7.47</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>29/07/2023 20:58</t>
+          <t>29/07/2023 20:59</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/athletico-pr-cruzeiro/6JbhEbCd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-santos/tWR0Orz4/</t>
         </is>
       </c>
     </row>
@@ -16121,22 +16121,22 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>1.98</v>
+        <v>2.76</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,15 +16144,15 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>2.32</v>
+        <v>2.73</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>05/08/2023 23:25</t>
+          <t>05/08/2023 23:21</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3.23</v>
+        <v>3.35</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,15 +16160,15 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>2.97</v>
+        <v>3.05</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>05/08/2023 23:25</t>
+          <t>05/08/2023 23:21</t>
         </is>
       </c>
       <c r="R171" t="n">
-        <v>4.45</v>
+        <v>2.65</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -16176,16 +16176,16 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>3.83</v>
+        <v>3</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>05/08/2023 23:29</t>
+          <t>05/08/2023 23:28</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-corinthians/f3JVRHtd/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-fortaleza/nwGNTwCq/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="n">
-        <v>2.76</v>
+        <v>1.98</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>2.73</v>
+        <v>2.32</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>05/08/2023 23:21</t>
+          <t>05/08/2023 23:25</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.35</v>
+        <v>3.23</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.05</v>
+        <v>2.97</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>05/08/2023 23:21</t>
+          <t>05/08/2023 23:25</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>2.65</v>
+        <v>4.45</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>3</v>
+        <v>3.83</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>05/08/2023 23:28</t>
+          <t>05/08/2023 23:29</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/goias-fortaleza/nwGNTwCq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/internacional-corinthians/f3JVRHtd/</t>
         </is>
       </c>
     </row>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G176" t="n">
@@ -16589,22 +16589,22 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>2.97</v>
+        <v>2.19</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 00:42</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>3.58</v>
+        <v>2.35</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
@@ -16612,40 +16612,40 @@
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.29</v>
+        <v>3.26</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 00:42</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.33</v>
+        <v>3.23</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>06/08/2023 23:26</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>2.51</v>
+        <v>3.71</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>30/07/2023 21:12</t>
+          <t>31/07/2023 00:42</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>2.23</v>
+        <v>3.41</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>06/08/2023 23:22</t>
+          <t>06/08/2023 23:25</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-bragantino/YgIZQyd2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-botafogo-rj/0tKRScRk/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="I177" t="n">
         <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>2.02</v>
+        <v>2.97</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>31/07/2023 03:12</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1.94</v>
+        <v>3.58</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>06/08/2023 23:29</t>
+          <t>06/08/2023 23:25</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.55</v>
+        <v>3.29</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>31/07/2023 03:12</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.68</v>
+        <v>3.33</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>06/08/2023 23:29</t>
+          <t>06/08/2023 23:26</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>3.92</v>
+        <v>2.51</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>31/07/2023 03:12</t>
+          <t>30/07/2023 21:12</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>4.12</v>
+        <v>2.23</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>06/08/2023 23:29</t>
+          <t>06/08/2023 23:22</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-america-mg/CvlGZTa2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/coritiba-bragantino/YgIZQyd2/</t>
         </is>
       </c>
     </row>
@@ -16765,46 +16765,46 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>2.19</v>
+        <v>2.02</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>31/07/2023 00:42</t>
+          <t>31/07/2023 03:12</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>2.35</v>
+        <v>1.94</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>06/08/2023 23:25</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.26</v>
+        <v>3.55</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>31/07/2023 00:42</t>
+          <t>31/07/2023 03:12</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.23</v>
+        <v>3.68</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -16812,24 +16812,24 @@
         </is>
       </c>
       <c r="R178" t="n">
-        <v>3.71</v>
+        <v>3.92</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>31/07/2023 00:42</t>
+          <t>31/07/2023 03:12</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>3.41</v>
+        <v>4.12</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>06/08/2023 23:25</t>
+          <t>06/08/2023 23:29</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/cruzeiro-botafogo-rj/0tKRScRk/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/bahia-america-mg/CvlGZTa2/</t>
         </is>
       </c>
     </row>
@@ -17225,34 +17225,34 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="I183" t="n">
         <v>1</v>
       </c>
       <c r="J183" t="n">
-        <v>1.82</v>
+        <v>2.26</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L183" t="n">
-        <v>1.73</v>
+        <v>2.32</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>13/08/2023 20:58</t>
+          <t>13/08/2023 20:51</t>
         </is>
       </c>
       <c r="N183" t="n">
@@ -17260,27 +17260,27 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3.59</v>
+        <v>3.35</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>13/08/2023 20:56</t>
+          <t>13/08/2023 20:55</t>
         </is>
       </c>
       <c r="R183" t="n">
-        <v>4.82</v>
+        <v>3.19</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="T183" t="n">
-        <v>5.72</v>
+        <v>3.36</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-coritiba/2RHaEJTg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fluminense/hGACBHDC/</t>
         </is>
       </c>
     </row>
@@ -17317,34 +17317,34 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="I184" t="n">
         <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>2.26</v>
+        <v>1.82</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="L184" t="n">
-        <v>2.32</v>
+        <v>1.73</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>13/08/2023 20:51</t>
+          <t>13/08/2023 20:58</t>
         </is>
       </c>
       <c r="N184" t="n">
@@ -17352,27 +17352,27 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3.35</v>
+        <v>3.59</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>13/08/2023 20:55</t>
+          <t>13/08/2023 20:56</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>3.19</v>
+        <v>4.82</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="T184" t="n">
-        <v>3.36</v>
+        <v>5.72</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/gremio-fluminense/hGACBHDC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/corinthians-coritiba/2RHaEJTg/</t>
         </is>
       </c>
     </row>
@@ -20721,22 +20721,22 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="I221" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J221" t="n">
-        <v>2.7</v>
+        <v>1.74</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -20744,15 +20744,15 @@
         </is>
       </c>
       <c r="L221" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>14/09/2023 23:55</t>
+          <t>14/09/2023 23:53</t>
         </is>
       </c>
       <c r="N221" t="n">
-        <v>3.08</v>
+        <v>3.74</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
@@ -20760,15 +20760,15 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>3.12</v>
+        <v>3.87</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>14/09/2023 23:55</t>
+          <t>14/09/2023 23:57</t>
         </is>
       </c>
       <c r="R221" t="n">
-        <v>2.92</v>
+        <v>5.21</v>
       </c>
       <c r="S221" t="inlineStr">
         <is>
@@ -20776,16 +20776,16 @@
         </is>
       </c>
       <c r="T221" t="n">
-        <v>3.44</v>
+        <v>6.84</v>
       </c>
       <c r="U221" t="inlineStr">
         <is>
-          <t>14/09/2023 23:54</t>
+          <t>14/09/2023 23:57</t>
         </is>
       </c>
       <c r="V221" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-cruzeiro/nXEt3jQG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-corinthians/jPuc75H2/</t>
         </is>
       </c>
     </row>
@@ -20813,22 +20813,22 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I222" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J222" t="n">
-        <v>1.74</v>
+        <v>2.7</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -20836,15 +20836,15 @@
         </is>
       </c>
       <c r="L222" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>14/09/2023 23:53</t>
+          <t>14/09/2023 23:55</t>
         </is>
       </c>
       <c r="N222" t="n">
-        <v>3.74</v>
+        <v>3.08</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
@@ -20852,15 +20852,15 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>3.87</v>
+        <v>3.12</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>14/09/2023 23:57</t>
+          <t>14/09/2023 23:55</t>
         </is>
       </c>
       <c r="R222" t="n">
-        <v>5.21</v>
+        <v>2.92</v>
       </c>
       <c r="S222" t="inlineStr">
         <is>
@@ -20868,16 +20868,16 @@
         </is>
       </c>
       <c r="T222" t="n">
-        <v>6.84</v>
+        <v>3.44</v>
       </c>
       <c r="U222" t="inlineStr">
         <is>
-          <t>14/09/2023 23:57</t>
+          <t>14/09/2023 23:54</t>
         </is>
       </c>
       <c r="V222" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fortaleza-corinthians/jPuc75H2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/santos-cruzeiro/nXEt3jQG/</t>
         </is>
       </c>
     </row>
@@ -21825,7 +21825,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G233" t="n">
@@ -21833,63 +21833,63 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J233" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>14/09/2023 23:13</t>
         </is>
       </c>
       <c r="L233" t="n">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>21/09/2023 02:20</t>
+          <t>21/09/2023 02:22</t>
         </is>
       </c>
       <c r="N233" t="n">
-        <v>3.76</v>
+        <v>3.55</v>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>14/09/2023 23:13</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>3.59</v>
+        <v>3.22</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>21/09/2023 02:20</t>
+          <t>21/09/2023 02:22</t>
         </is>
       </c>
       <c r="R233" t="n">
-        <v>4.66</v>
+        <v>4.3</v>
       </c>
       <c r="S233" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>14/09/2023 23:13</t>
         </is>
       </c>
       <c r="T233" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="U233" t="inlineStr">
         <is>
-          <t>21/09/2023 02:22</t>
+          <t>21/09/2023 02:28</t>
         </is>
       </c>
       <c r="V233" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-cruzeiro/niZ55qnF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-fortaleza/fHxE3NGR/</t>
         </is>
       </c>
     </row>
@@ -21917,7 +21917,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G234" t="n">
@@ -21925,63 +21925,63 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="I234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>14/09/2023 23:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L234" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="M234" t="inlineStr">
         <is>
+          <t>21/09/2023 02:20</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P234" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>21/09/2023 02:20</t>
+        </is>
+      </c>
+      <c r="R234" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T234" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
           <t>21/09/2023 02:22</t>
         </is>
       </c>
-      <c r="N234" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O234" t="inlineStr">
-        <is>
-          <t>14/09/2023 23:13</t>
-        </is>
-      </c>
-      <c r="P234" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q234" t="inlineStr">
-        <is>
-          <t>21/09/2023 02:22</t>
-        </is>
-      </c>
-      <c r="R234" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="S234" t="inlineStr">
-        <is>
-          <t>14/09/2023 23:13</t>
-        </is>
-      </c>
-      <c r="T234" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="U234" t="inlineStr">
-        <is>
-          <t>21/09/2023 02:28</t>
-        </is>
-      </c>
       <c r="V234" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-a/sao-paulo-fortaleza/fHxE3NGR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/fluminense-cruzeiro/niZ55qnF/</t>
         </is>
       </c>
     </row>
@@ -22442,6 +22442,98 @@
       <c r="V239" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-a/atletico-mg-cuiaba/xzXmcLge/</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>serie-a</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45195.04166666666</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>21/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>26/09/2023 00:59</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>21/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P240" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>26/09/2023 00:53</t>
+        </is>
+      </c>
+      <c r="R240" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>21/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T240" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>26/09/2023 00:59</t>
+        </is>
+      </c>
+      <c r="V240" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-a/america-mg-vasco/QPWMCoyh/</t>
         </is>
       </c>
     </row>
